--- a/Main/Data/data.xlsx
+++ b/Main/Data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\WoL!\Admin's Shitpost\Year-In-Stats\Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\WoL!\Admin's Shitpost\Year-In-Stats\Main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="2018 - Multimedia" sheetId="2" r:id="rId1"/>
     <sheet name="2018 - data" sheetId="1" r:id="rId2"/>
     <sheet name="2019 - Multimedia" sheetId="3" r:id="rId3"/>
-    <sheet name="2019" sheetId="4" r:id="rId4"/>
+    <sheet name="2019a" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1157,7 +1157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,14 +1199,6 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1324,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1374,6 +1366,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,12 +1403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1713,20 +1702,20 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1837,20 +1826,20 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1961,20 +1950,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2085,20 +2074,20 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2209,20 +2198,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -2333,20 +2322,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -2499,20 +2488,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2596,20 +2585,20 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2693,20 +2682,20 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2790,20 +2779,20 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2887,20 +2876,20 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2984,20 +2973,20 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -3132,35 +3121,35 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>724</v>
+        <v>1413</v>
       </c>
       <c r="B2" s="11">
         <f>AVERAGEIF(A4:L4,"&gt;=0")</f>
-        <v>13.429935985606622</v>
+        <v>16.741801041517725</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3180,8 +3169,12 @@
       <c r="B3" s="1">
         <v>349</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1">
+        <v>307</v>
+      </c>
+      <c r="D3" s="1">
+        <v>382</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -3193,69 +3186,69 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <f>A3*100/'2019'!A3</f>
+        <f>A3*100/'2019a'!A3</f>
         <v>9.709994821336096</v>
       </c>
       <c r="B4" s="9">
-        <f>B3*100/'2019'!B3</f>
+        <f>B3*100/'2019a'!B3</f>
         <v>17.149877149877149</v>
       </c>
-      <c r="C4" s="9" t="e">
-        <f>C3*100/'2019'!C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="9" t="e">
-        <f>D3*100/'2019'!D3</f>
-        <v>#DIV/0!</v>
+      <c r="C4" s="9">
+        <f>C3*100/'2019a'!C3</f>
+        <v>20.065359477124183</v>
+      </c>
+      <c r="D4" s="9">
+        <f>D3*100/'2019a'!D3</f>
+        <v>20.041972717733472</v>
       </c>
       <c r="E4" s="9" t="e">
-        <f>E3*100/'2019'!E3</f>
+        <f>E3*100/'2019a'!E3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F4" s="9" t="e">
-        <f>F3*100/'2019'!F3</f>
+        <f>F3*100/'2019a'!F3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G4" s="9" t="e">
-        <f>G3*100/'2019'!G3</f>
+        <f>G3*100/'2019a'!G3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H4" s="9" t="e">
-        <f>H3*100/'2019'!H3</f>
+        <f>H3*100/'2019a'!H3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I4" s="9" t="e">
-        <f>I3*100/'2019'!I3</f>
+        <f>I3*100/'2019a'!I3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J4" s="9" t="e">
-        <f>J3*100/'2019'!J3</f>
+        <f>J3*100/'2019a'!J3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="9" t="e">
-        <f>K3*100/'2019'!K3</f>
+        <f>K3*100/'2019a'!K3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L4" s="10" t="e">
-        <f>L3*100/'2019'!L3</f>
+        <f>L3*100/'2019a'!L3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -3284,91 +3277,95 @@
       <c r="B7" s="14">
         <v>22</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="4"/>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <f>A7*100/'2019'!A7</f>
+        <f>A7*100/'2019a'!A7</f>
         <v>1.3793103448275863</v>
       </c>
       <c r="B8" s="9">
-        <f>B7*100/'2019'!B7</f>
+        <f>B7*100/'2019a'!B7</f>
         <v>2.3835319609967498</v>
       </c>
       <c r="C8" s="9" t="e">
-        <f>C7*100/'2019'!C7</f>
+        <f>C7*100/'2019a'!C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D8" s="9" t="e">
-        <f>D7*100/'2019'!D7</f>
+        <f>D7*100/'2019a'!D7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E8" s="9" t="e">
-        <f>E7*100/'2019'!E7</f>
+        <f>E7*100/'2019a'!E7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F8" s="9" t="e">
-        <f>F7*100/'2019'!F7</f>
+        <f>F7*100/'2019a'!F7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="9" t="e">
-        <f>G7*100/'2019'!G7</f>
+        <f>G7*100/'2019a'!G7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="9" t="e">
-        <f>H7*100/'2019'!H7</f>
+        <f>H7*100/'2019a'!H7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I8" s="9" t="e">
-        <f>I7*100/'2019'!I7</f>
+        <f>I7*100/'2019a'!I7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J8" s="9" t="e">
-        <f>J7*100/'2019'!J7</f>
+        <f>J7*100/'2019a'!J7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="9" t="e">
-        <f>K7*100/'2019'!K7</f>
+        <f>K7*100/'2019a'!K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="10" t="e">
-        <f>L7*100/'2019'!L7</f>
+        <f>L7*100/'2019a'!L7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>196</v>
+        <v>552</v>
       </c>
       <c r="B10" s="11">
         <f>AVERAGEIF(A12:L12,"&gt;=0")</f>
-        <v>8.7545377627947261</v>
+        <v>11.81313462223763</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3388,8 +3385,12 @@
       <c r="B11" s="3">
         <v>95</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3">
+        <v>143</v>
+      </c>
+      <c r="D11" s="3">
+        <v>213</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3401,78 +3402,78 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <f>A11*100/'2019'!A11</f>
+        <f>A11*100/'2019a'!A11</f>
         <v>7.2609633357296905</v>
       </c>
       <c r="B12" s="9">
-        <f>B11*100/'2019'!B11</f>
+        <f>B11*100/'2019a'!B11</f>
         <v>10.248112189859762</v>
       </c>
-      <c r="C12" s="9" t="e">
-        <f>C11*100/'2019'!C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
-        <f>D11*100/'2019'!D11</f>
-        <v>#DIV/0!</v>
+      <c r="C12" s="9">
+        <f>C11*100/'2019a'!C11</f>
+        <v>13.167587476979742</v>
+      </c>
+      <c r="D12" s="9">
+        <f>D11*100/'2019a'!D11</f>
+        <v>16.575875486381324</v>
       </c>
       <c r="E12" s="9" t="e">
-        <f>E11*100/'2019'!E11</f>
+        <f>E11*100/'2019a'!E11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="9" t="e">
-        <f>F11*100/'2019'!F11</f>
+        <f>F11*100/'2019a'!F11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G12" s="9" t="e">
-        <f>G11*100/'2019'!G11</f>
+        <f>G11*100/'2019a'!G11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H12" s="9" t="e">
-        <f>H11*100/'2019'!H11</f>
+        <f>H11*100/'2019a'!H11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="9" t="e">
-        <f>I11*100/'2019'!I11</f>
+        <f>I11*100/'2019a'!I11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" s="9" t="e">
-        <f>J11*100/'2019'!J11</f>
+        <f>J11*100/'2019a'!J11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K12" s="9" t="e">
-        <f>K11*100/'2019'!K11</f>
+        <f>K11*100/'2019a'!K11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="10" t="e">
-        <f>L11*100/'2019'!L11</f>
+        <f>L11*100/'2019a'!L11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>225</v>
+        <v>390</v>
       </c>
       <c r="B14" s="11">
         <f>AVERAGEIF(A16:L16,"&gt;=0")</f>
-        <v>14.970755693581781</v>
+        <v>15.699735095519008</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3492,8 +3493,12 @@
       <c r="B15" s="3">
         <v>102</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="17">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3">
+        <v>92</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3505,78 +3510,78 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <f>A15*100/'2019'!A15</f>
+        <f>A15*100/'2019a'!A15</f>
         <v>12.202380952380953</v>
       </c>
       <c r="B16" s="9">
-        <f>B15*100/'2019'!B15</f>
+        <f>B15*100/'2019a'!B15</f>
         <v>17.739130434782609</v>
       </c>
-      <c r="C16" s="9" t="e">
-        <f>C15*100/'2019'!C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="9" t="e">
-        <f>D15*100/'2019'!D15</f>
-        <v>#DIV/0!</v>
+      <c r="C16" s="9">
+        <f>C15*100/'2019a'!C15</f>
+        <v>15.498938428874734</v>
+      </c>
+      <c r="D16" s="9">
+        <f>D15*100/'2019a'!D15</f>
+        <v>17.358490566037737</v>
       </c>
       <c r="E16" s="9" t="e">
-        <f>E15*100/'2019'!E15</f>
+        <f>E15*100/'2019a'!E15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F16" s="9" t="e">
-        <f>F15*100/'2019'!F15</f>
+        <f>F15*100/'2019a'!F15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="9" t="e">
-        <f>G15*100/'2019'!G15</f>
+        <f>G15*100/'2019a'!G15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="9" t="e">
-        <f>H15*100/'2019'!H15</f>
+        <f>H15*100/'2019a'!H15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="9" t="e">
-        <f>I15*100/'2019'!I15</f>
+        <f>I15*100/'2019a'!I15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="9" t="e">
-        <f>J15*100/'2019'!J15</f>
+        <f>J15*100/'2019a'!J15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="9" t="e">
-        <f>K15*100/'2019'!K15</f>
+        <f>K15*100/'2019a'!K15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="10" t="e">
-        <f>L15*100/'2019'!L15</f>
+        <f>L15*100/'2019a'!L15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM(A19:L19)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B18" s="15">
         <f>AVERAGEIF(A20:L20,"&gt;=0")</f>
-        <v>0.98039215686274506</v>
+        <v>1.312564499484004</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3596,8 +3601,12 @@
       <c r="B19" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="17">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3609,78 +3618,78 @@
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <f>A19*100/'2019'!A19</f>
+        <f>A19*100/'2019a'!A19</f>
         <v>1.9607843137254901</v>
       </c>
       <c r="B20" s="13">
-        <f>B19*100/'2019'!B19</f>
+        <f>B19*100/'2019a'!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="13" t="e">
-        <f>C19*100/'2019'!C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="13" t="e">
-        <f>D19*100/'2019'!D19</f>
-        <v>#DIV/0!</v>
+      <c r="C20" s="13">
+        <f>C19*100/'2019a'!C19</f>
+        <v>3.2894736842105261</v>
+      </c>
+      <c r="D20" s="13">
+        <f>D19*100/'2019a'!D19</f>
+        <v>0</v>
       </c>
       <c r="E20" s="13" t="e">
-        <f>E19*100/'2019'!E19</f>
+        <f>E19*100/'2019a'!E19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="13" t="e">
-        <f>F19*100/'2019'!F19</f>
+        <f>F19*100/'2019a'!F19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="13" t="e">
-        <f>G19*100/'2019'!G19</f>
+        <f>G19*100/'2019a'!G19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="13" t="e">
-        <f>H19*100/'2019'!H19</f>
+        <f>H19*100/'2019a'!H19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="13" t="e">
-        <f>I19*100/'2019'!I19</f>
+        <f>I19*100/'2019a'!I19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J20" s="13" t="e">
-        <f>J19*100/'2019'!J19</f>
+        <f>J19*100/'2019a'!J19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K20" s="13" t="e">
-        <f>K19*100/'2019'!K19</f>
+        <f>K19*100/'2019a'!K19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="10" t="e">
-        <f>L19*100/'2019'!L19</f>
+        <f>L19*100/'2019a'!L19</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM(A23:L23)</f>
-        <v>1203</v>
+        <v>2418</v>
       </c>
       <c r="B22" s="15">
         <f>AVERAGEIF(A24:L24,"&gt;0")</f>
-        <v>9.9386281175673723</v>
+        <v>13.45075164657144</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3704,11 +3713,11 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
@@ -3745,62 +3754,62 @@
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <f>A23*100/'2019'!A23</f>
+        <f>A23*100/'2019a'!A23</f>
         <v>7.1930222020842773</v>
       </c>
       <c r="B24" s="13">
-        <f>B23*100/'2019'!B23</f>
+        <f>B23*100/'2019a'!B23</f>
         <v>12.684234033050469</v>
       </c>
-      <c r="C24" s="13" t="e">
-        <f>C23*100/'2019'!C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="13" t="e">
-        <f>D23*100/'2019'!D23</f>
-        <v>#DIV/0!</v>
+      <c r="C24" s="13">
+        <f>C23*100/'2019a'!C23</f>
+        <v>16.301327570237728</v>
+      </c>
+      <c r="D24" s="13">
+        <f>D23*100/'2019a'!D23</f>
+        <v>17.624422780913289</v>
       </c>
       <c r="E24" s="13" t="e">
-        <f>E23*100/'2019'!E23</f>
+        <f>E23*100/'2019a'!E23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="13" t="e">
-        <f>F23*100/'2019'!F23</f>
+        <f>F23*100/'2019a'!F23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="13" t="e">
-        <f>G23*100/'2019'!G23</f>
+        <f>G23*100/'2019a'!G23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H24" s="13" t="e">
-        <f>H23*100/'2019'!H23</f>
+        <f>H23*100/'2019a'!H23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="13" t="e">
-        <f>I23*100/'2019'!I23</f>
+        <f>I23*100/'2019a'!I23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="13" t="e">
-        <f>J23*100/'2019'!J23</f>
+        <f>J23*100/'2019a'!J23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="13" t="e">
-        <f>K23*100/'2019'!K23</f>
+        <f>K23*100/'2019a'!K23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="10" t="e">
-        <f>L23*100/'2019'!L23</f>
+        <f>L23*100/'2019a'!L23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:L21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3816,7 +3825,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3825,33 +3834,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>5897</v>
+        <v>9333</v>
       </c>
       <c r="B2" s="11">
         <f>100-'2019 - Multimedia'!B2</f>
-        <v>86.570064014393381</v>
+        <v>83.258198958482268</v>
       </c>
       <c r="C2" s="3">
         <f>TRUNC(A2/A4)</f>
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3870,8 +3879,12 @@
       <c r="B3" s="3">
         <v>2035</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="17">
+        <v>1530</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1906</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3902,20 +3915,20 @@
       <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -3947,8 +3960,12 @@
       <c r="B7" s="3">
         <v>923</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3980,33 +3997,33 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>2318</v>
+        <v>4689</v>
       </c>
       <c r="B10" s="11">
         <f>100-'2019 - Multimedia'!B10</f>
-        <v>91.245462237205274</v>
+        <v>88.186865377762373</v>
       </c>
       <c r="C10" s="3">
         <f>TRUNC(A10/A12)</f>
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4025,8 +4042,12 @@
       <c r="B11" s="3">
         <v>927</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3">
+        <v>1086</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1285</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -4058,33 +4079,33 @@
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>1583</v>
+        <v>2584</v>
       </c>
       <c r="B14" s="11">
         <f>100-'2019 - Multimedia'!B14</f>
-        <v>85.029244306418221</v>
+        <v>84.300264904480997</v>
       </c>
       <c r="C14" s="3">
         <f>TRUNC(A14/A16)</f>
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4103,8 +4124,12 @@
       <c r="B15" s="3">
         <v>575</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3">
+        <v>471</v>
+      </c>
+      <c r="D15" s="3">
+        <v>530</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4136,33 +4161,33 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>120</v>
+        <v>449</v>
       </c>
       <c r="B18" s="11">
         <f>100-'2019 - Multimedia'!B18</f>
-        <v>99.019607843137251</v>
+        <v>98.687435500516003</v>
       </c>
       <c r="C18" s="3">
         <f>TRUNC(A18/A20)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4181,8 +4206,12 @@
       <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3">
+        <v>152</v>
+      </c>
+      <c r="D19" s="3">
+        <v>177</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4214,33 +4243,33 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>SUM(A23:L23)</f>
-        <v>13306</v>
+        <v>20443</v>
       </c>
       <c r="B22" s="11">
         <f>100-'2019 - Multimedia'!B22</f>
-        <v>90.061371882432624</v>
+        <v>86.549248353428567</v>
       </c>
       <c r="C22" s="3">
         <f>TRUNC(A22/A24)</f>
-        <v>225</v>
+        <v>346</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4263,11 +4292,11 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3239</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3898</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
@@ -4342,12 +4371,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:L21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Main/Data/data.xlsx
+++ b/Main/Data/data.xlsx
@@ -2479,7 +2479,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3121,7 +3121,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3145,11 +3145,11 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>1413</v>
+        <v>1724</v>
       </c>
       <c r="B2" s="11">
         <f>AVERAGEIF(A4:L4,"&gt;=0")</f>
-        <v>16.741801041517725</v>
+        <v>17.082646052668508</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3175,7 +3175,9 @@
       <c r="D3" s="1">
         <v>382</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>311</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3201,9 +3203,9 @@
         <f>D3*100/'2019a'!D3</f>
         <v>20.041972717733472</v>
       </c>
-      <c r="E4" s="9" t="e">
+      <c r="E4" s="9">
         <f>E3*100/'2019a'!E3</f>
-        <v>#DIV/0!</v>
+        <v>18.446026097271648</v>
       </c>
       <c r="F4" s="9" t="e">
         <f>F3*100/'2019a'!F3</f>
@@ -3283,7 +3285,9 @@
       <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -3361,11 +3365,11 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="B10" s="11">
         <f>AVERAGEIF(A12:L12,"&gt;=0")</f>
-        <v>11.81313462223763</v>
+        <v>12.559598606881014</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3391,7 +3395,9 @@
       <c r="D11" s="3">
         <v>213</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>171</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3417,9 +3423,9 @@
         <f>D11*100/'2019a'!D11</f>
         <v>16.575875486381324</v>
       </c>
-      <c r="E12" s="9" t="e">
+      <c r="E12" s="9">
         <f>E11*100/'2019a'!E11</f>
-        <v>#DIV/0!</v>
+        <v>15.545454545454545</v>
       </c>
       <c r="F12" s="9" t="e">
         <f>F11*100/'2019a'!F11</f>
@@ -3469,11 +3475,11 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="B14" s="11">
         <f>AVERAGEIF(A16:L16,"&gt;=0")</f>
-        <v>15.699735095519008</v>
+        <v>15.544081270132484</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3499,7 +3505,9 @@
       <c r="D15" s="3">
         <v>92</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>57</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3525,9 +3533,9 @@
         <f>D15*100/'2019a'!D15</f>
         <v>17.358490566037737</v>
       </c>
-      <c r="E16" s="9" t="e">
+      <c r="E16" s="9">
         <f>E15*100/'2019a'!E15</f>
-        <v>#DIV/0!</v>
+        <v>14.921465968586388</v>
       </c>
       <c r="F16" s="9" t="e">
         <f>F15*100/'2019a'!F15</f>
@@ -3581,7 +3589,7 @@
       </c>
       <c r="B18" s="15">
         <f>AVERAGEIF(A20:L20,"&gt;=0")</f>
-        <v>1.312564499484004</v>
+        <v>1.0500515995872033</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3607,7 +3615,9 @@
       <c r="D19" s="3">
         <v>0</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3633,9 +3643,9 @@
         <f>D19*100/'2019a'!D19</f>
         <v>0</v>
       </c>
-      <c r="E20" s="13" t="e">
+      <c r="E20" s="13">
         <f>E19*100/'2019a'!E19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F20" s="13" t="e">
         <f>F19*100/'2019a'!F19</f>
@@ -3685,11 +3695,11 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM(A23:L23)</f>
-        <v>2418</v>
+        <v>2957</v>
       </c>
       <c r="B22" s="15">
         <f>AVERAGEIF(A24:L24,"&gt;0")</f>
-        <v>13.45075164657144</v>
+        <v>14.082635215562238</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3721,7 +3731,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
@@ -3769,9 +3779,9 @@
         <f>D23*100/'2019a'!D23</f>
         <v>17.624422780913289</v>
       </c>
-      <c r="E24" s="13" t="e">
+      <c r="E24" s="13">
         <f>E23*100/'2019a'!E23</f>
-        <v>#DIV/0!</v>
+        <v>16.610169491525422</v>
       </c>
       <c r="F24" s="13" t="e">
         <f>F23*100/'2019a'!F23</f>
@@ -3825,12 +3835,13 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3852,15 +3863,15 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>9333</v>
+        <v>11019</v>
       </c>
       <c r="B2" s="11">
         <f>100-'2019 - Multimedia'!B2</f>
-        <v>83.258198958482268</v>
+        <v>82.917353947331492</v>
       </c>
       <c r="C2" s="3">
         <f>TRUNC(A2/A4)</f>
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3885,7 +3896,9 @@
       <c r="D3" s="3">
         <v>1906</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3">
+        <v>1686</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3896,7 +3909,8 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>59</v>
+        <f>_xlfn.DAYS("1/6/2019","1/1/2019")</f>
+        <v>151</v>
       </c>
       <c r="B4" s="7">
         <v>369</v>
@@ -3941,7 +3955,7 @@
       </c>
       <c r="C6" s="3">
         <f>TRUNC(A6/A8)</f>
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3966,7 +3980,9 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -3978,7 +3994,7 @@
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>A4</f>
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B8" s="7">
         <v>369</v>
@@ -4015,15 +4031,15 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>4689</v>
+        <v>5789</v>
       </c>
       <c r="B10" s="11">
         <f>100-'2019 - Multimedia'!B10</f>
-        <v>88.186865377762373</v>
+        <v>87.440401393118989</v>
       </c>
       <c r="C10" s="3">
         <f>TRUNC(A10/A12)</f>
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4048,7 +4064,9 @@
       <c r="D11" s="3">
         <v>1285</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>1100</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4060,7 +4078,7 @@
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>A4</f>
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B12" s="7">
         <v>369</v>
@@ -4097,15 +4115,15 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>2584</v>
+        <v>2966</v>
       </c>
       <c r="B14" s="11">
         <f>100-'2019 - Multimedia'!B14</f>
-        <v>84.300264904480997</v>
+        <v>84.45591872986752</v>
       </c>
       <c r="C14" s="3">
         <f>TRUNC(A14/A16)</f>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4130,7 +4148,9 @@
       <c r="D15" s="3">
         <v>530</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>382</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -4142,7 +4162,7 @@
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f>A4</f>
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B16" s="7">
         <v>369</v>
@@ -4179,15 +4199,15 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>449</v>
+        <v>526</v>
       </c>
       <c r="B18" s="11">
         <f>100-'2019 - Multimedia'!B18</f>
-        <v>98.687435500516003</v>
+        <v>98.949948400412794</v>
       </c>
       <c r="C18" s="3">
         <f>TRUNC(A18/A20)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4212,7 +4232,9 @@
       <c r="D19" s="3">
         <v>177</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>77</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -4224,7 +4246,7 @@
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f>A4</f>
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B20" s="7">
         <v>369</v>
@@ -4261,15 +4283,15 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>SUM(A23:L23)</f>
-        <v>20443</v>
+        <v>23688</v>
       </c>
       <c r="B22" s="11">
         <f>100-'2019 - Multimedia'!B22</f>
-        <v>86.549248353428567</v>
+        <v>85.917364784437765</v>
       </c>
       <c r="C22" s="3">
         <f>TRUNC(A22/A24)</f>
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4300,7 +4322,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3245</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
@@ -4334,7 +4356,7 @@
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f>A4</f>
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="B24" s="7">
         <v>369</v>

--- a/Main/Data/data.xlsx
+++ b/Main/Data/data.xlsx
@@ -3121,7 +3121,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3145,11 +3145,11 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>1724</v>
+        <v>3058</v>
       </c>
       <c r="B2" s="11">
         <f>AVERAGEIF(A4:L4,"&gt;=0")</f>
-        <v>17.082646052668508</v>
+        <v>17.093123951040674</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3178,9 +3178,15 @@
       <c r="E3" s="1">
         <v>311</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="1">
+        <v>354</v>
+      </c>
+      <c r="G3" s="1">
+        <v>361</v>
+      </c>
+      <c r="H3" s="1">
+        <v>619</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3207,17 +3213,17 @@
         <f>E3*100/'2019a'!E3</f>
         <v>18.446026097271648</v>
       </c>
-      <c r="F4" s="9" t="e">
+      <c r="F4" s="9">
         <f>F3*100/'2019a'!F3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="9" t="e">
+        <v>17.134559535333977</v>
+      </c>
+      <c r="G4" s="9">
         <f>G3*100/'2019a'!G3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="9" t="e">
+        <v>16.853408029878619</v>
+      </c>
+      <c r="H4" s="9">
         <f>H3*100/'2019a'!H3</f>
-        <v>#DIV/0!</v>
+        <v>17.343793779770245</v>
       </c>
       <c r="I4" s="9" t="e">
         <f>I3*100/'2019a'!I3</f>
@@ -3255,11 +3261,11 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>SUM(A7:L7)</f>
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="B6" s="11">
         <f>AVERAGEIF(A8:L8,"&gt;=0")</f>
-        <v>1.881421152912168</v>
+        <v>10.992244010342461</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3288,9 +3294,15 @@
       <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>47</v>
+      </c>
+      <c r="H7" s="14">
+        <v>148</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -3321,13 +3333,13 @@
         <f>F7*100/'2019a'!F7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="9" t="e">
+      <c r="G8" s="9">
         <f>G7*100/'2019a'!G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" s="9" t="e">
+        <v>30.718954248366014</v>
+      </c>
+      <c r="H8" s="9">
         <f>H7*100/'2019a'!H7</f>
-        <v>#DIV/0!</v>
+        <v>9.4871794871794872</v>
       </c>
       <c r="I8" s="9" t="e">
         <f>I7*100/'2019a'!I7</f>
@@ -3365,11 +3377,11 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>723</v>
+        <v>1086</v>
       </c>
       <c r="B10" s="11">
         <f>AVERAGEIF(A12:L12,"&gt;=0")</f>
-        <v>12.559598606881014</v>
+        <v>13.984843529370206</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3398,9 +3410,15 @@
       <c r="E11" s="3">
         <v>171</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3">
+        <v>178</v>
+      </c>
+      <c r="G11" s="3">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3">
+        <v>134</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -3427,17 +3445,17 @@
         <f>E11*100/'2019a'!E11</f>
         <v>15.545454545454545</v>
       </c>
-      <c r="F12" s="9" t="e">
+      <c r="F12" s="9">
         <f>F11*100/'2019a'!F11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="9" t="e">
+        <v>15.200683176771991</v>
+      </c>
+      <c r="G12" s="9">
         <f>G11*100/'2019a'!G11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="9" t="e">
+        <v>17.832167832167833</v>
+      </c>
+      <c r="H12" s="9">
         <f>H11*100/'2019a'!H11</f>
-        <v>#DIV/0!</v>
+        <v>16.047904191616766</v>
       </c>
       <c r="I12" s="9" t="e">
         <f>I11*100/'2019a'!I11</f>
@@ -3475,11 +3493,11 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>447</v>
+        <v>742</v>
       </c>
       <c r="B14" s="11">
         <f>AVERAGEIF(A16:L16,"&gt;=0")</f>
-        <v>15.544081270132484</v>
+        <v>14.452002617905038</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3508,9 +3526,15 @@
       <c r="E15" s="3">
         <v>57</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="3">
+        <v>68</v>
+      </c>
+      <c r="G15" s="3">
+        <v>88</v>
+      </c>
+      <c r="H15" s="3">
+        <v>139</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -3537,17 +3561,17 @@
         <f>E15*100/'2019a'!E15</f>
         <v>14.921465968586388</v>
       </c>
-      <c r="F16" s="9" t="e">
+      <c r="F16" s="9">
         <f>F15*100/'2019a'!F15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="9" t="e">
+        <v>13.991769547325102</v>
+      </c>
+      <c r="G16" s="9">
         <f>G15*100/'2019a'!G15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="9" t="e">
+        <v>10.602409638554217</v>
+      </c>
+      <c r="H16" s="9">
         <f>H15*100/'2019a'!H15</f>
-        <v>#DIV/0!</v>
+        <v>13.301435406698564</v>
       </c>
       <c r="I16" s="9" t="e">
         <f>I15*100/'2019a'!I15</f>
@@ -3585,11 +3609,11 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f>SUM(A19:L19)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18" s="15">
         <f>AVERAGEIF(A20:L20,"&gt;=0")</f>
-        <v>1.0500515995872033</v>
+        <v>1.7052845971598423</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3618,9 +3642,15 @@
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -3647,17 +3677,17 @@
         <f>E19*100/'2019a'!E19</f>
         <v>0</v>
       </c>
-      <c r="F20" s="13" t="e">
+      <c r="F20" s="13">
         <f>F19*100/'2019a'!F19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
         <f>G19*100/'2019a'!G19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="13" t="e">
+        <v>4.225352112676056</v>
+      </c>
+      <c r="H20" s="13">
         <f>H19*100/'2019a'!H19</f>
-        <v>#DIV/0!</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I20" s="13" t="e">
         <f>I19*100/'2019a'!I19</f>
@@ -3695,11 +3725,11 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM(A23:L23)</f>
-        <v>2957</v>
+        <v>5151</v>
       </c>
       <c r="B22" s="15">
         <f>AVERAGEIF(A24:L24,"&gt;0")</f>
-        <v>14.082635215562238</v>
+        <v>14.588366411844035</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3735,15 +3765,15 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1041</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
@@ -3783,17 +3813,17 @@
         <f>E23*100/'2019a'!E23</f>
         <v>16.610169491525422</v>
       </c>
-      <c r="F24" s="13" t="e">
+      <c r="F24" s="13">
         <f>F23*100/'2019a'!F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="13" t="e">
+        <v>15.927794000530927</v>
+      </c>
+      <c r="G24" s="13">
         <f>G23*100/'2019a'!G23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="13" t="e">
+        <v>15.564311849141571</v>
+      </c>
+      <c r="H24" s="13">
         <f>H23*100/'2019a'!H23</f>
-        <v>#DIV/0!</v>
+        <v>14.801649367268592</v>
       </c>
       <c r="I24" s="13" t="e">
         <f>I23*100/'2019a'!I23</f>
@@ -3835,7 +3865,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3863,15 +3893,15 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>11019</v>
+        <v>18796</v>
       </c>
       <c r="B2" s="11">
         <f>100-'2019 - Multimedia'!B2</f>
-        <v>82.917353947331492</v>
+        <v>82.906876048959333</v>
       </c>
       <c r="C2" s="3">
         <f>TRUNC(A2/A4)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3899,18 +3929,24 @@
       <c r="E3" s="3">
         <v>1686</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="F3" s="3">
+        <v>2066</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2142</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3569</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>_xlfn.DAYS("1/6/2019","1/1/2019")</f>
-        <v>151</v>
+        <f>_xlfn.DAYS("1/9/2019","1/1/2019")</f>
+        <v>243</v>
       </c>
       <c r="B4" s="7">
         <v>369</v>
@@ -3947,15 +3983,15 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>SUM(A7:L7)</f>
-        <v>3388</v>
+        <v>5101</v>
       </c>
       <c r="B6" s="11">
         <f>100-'2019 - Multimedia'!B6</f>
-        <v>98.118578847087832</v>
+        <v>89.007755989657539</v>
       </c>
       <c r="C6" s="3">
         <f>TRUNC(A6/A8)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3983,9 +4019,15 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>153</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1560</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3994,7 +4036,7 @@
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>A4</f>
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B8" s="7">
         <v>369</v>
@@ -4031,15 +4073,15 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>5789</v>
+        <v>8081</v>
       </c>
       <c r="B10" s="11">
         <f>100-'2019 - Multimedia'!B10</f>
-        <v>87.440401393118989</v>
+        <v>86.01515647062979</v>
       </c>
       <c r="C10" s="3">
         <f>TRUNC(A10/A12)</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4067,9 +4109,15 @@
       <c r="E11" s="3">
         <v>1100</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3">
+        <v>1171</v>
+      </c>
+      <c r="G11" s="3">
+        <v>286</v>
+      </c>
+      <c r="H11" s="3">
+        <v>835</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4078,7 +4126,7 @@
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>A4</f>
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B12" s="7">
         <v>369</v>
@@ -4115,15 +4163,15 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>2966</v>
+        <v>5327</v>
       </c>
       <c r="B14" s="11">
         <f>100-'2019 - Multimedia'!B14</f>
-        <v>84.45591872986752</v>
+        <v>85.547997382094962</v>
       </c>
       <c r="C14" s="3">
         <f>TRUNC(A14/A16)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4151,9 +4199,15 @@
       <c r="E15" s="3">
         <v>382</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="3">
+        <v>486</v>
+      </c>
+      <c r="G15" s="3">
+        <v>830</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1045</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -4162,7 +4216,7 @@
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f>A4</f>
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B16" s="7">
         <v>369</v>
@@ -4199,11 +4253,11 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>526</v>
+        <v>736</v>
       </c>
       <c r="B18" s="11">
         <f>100-'2019 - Multimedia'!B18</f>
-        <v>98.949948400412794</v>
+        <v>98.294715402840154</v>
       </c>
       <c r="C18" s="3">
         <f>TRUNC(A18/A20)</f>
@@ -4235,9 +4289,15 @@
       <c r="E19" s="3">
         <v>77</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="3">
+        <v>44</v>
+      </c>
+      <c r="G19" s="3">
+        <v>142</v>
+      </c>
+      <c r="H19" s="3">
+        <v>24</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -4246,7 +4306,7 @@
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f>A4</f>
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B20" s="7">
         <v>369</v>
@@ -4283,11 +4343,11 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>SUM(A23:L23)</f>
-        <v>23688</v>
+        <v>38041</v>
       </c>
       <c r="B22" s="11">
         <f>100-'2019 - Multimedia'!B22</f>
-        <v>85.917364784437765</v>
+        <v>85.411633588155965</v>
       </c>
       <c r="C22" s="3">
         <f>TRUNC(A22/A24)</f>
@@ -4326,15 +4386,15 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3767</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3553</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7033</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
@@ -4356,7 +4416,7 @@
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f>A4</f>
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B24" s="7">
         <v>369</v>

--- a/Main/Data/data.xlsx
+++ b/Main/Data/data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2018 - Multimedia" sheetId="2" r:id="rId1"/>
     <sheet name="2018 - data" sheetId="1" r:id="rId2"/>
     <sheet name="2019 - Multimedia" sheetId="3" r:id="rId3"/>
-    <sheet name="2019a" sheetId="4" r:id="rId4"/>
+    <sheet name="2019 - data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -669,7 +669,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -679,11 +693,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Porcentaje de Multimedia Mensual</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -697,7 +725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +739,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -721,11 +763,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Porcentaje de Multimedia Mensual</t>
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -739,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -753,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +851,63 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1128,12 +1240,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="A26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>TEJÓN</t>
   </si>
@@ -1151,6 +1431,18 @@
   </si>
   <si>
     <t>WOL! (TOTAL)</t>
+  </si>
+  <si>
+    <t>BOSBONI</t>
+  </si>
+  <si>
+    <t>COHETE</t>
+  </si>
+  <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>SANTY</t>
   </si>
 </sst>
 </file>
@@ -3118,10 +3410,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3194,57 +3486,57 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <f>A3*100/'2019a'!A3</f>
+        <f>A3*100/'2019 - data'!A3</f>
         <v>9.709994821336096</v>
       </c>
       <c r="B4" s="9">
-        <f>B3*100/'2019a'!B3</f>
+        <f>B3*100/'2019 - data'!B3</f>
         <v>17.149877149877149</v>
       </c>
       <c r="C4" s="9">
-        <f>C3*100/'2019a'!C3</f>
+        <f>C3*100/'2019 - data'!C3</f>
         <v>20.065359477124183</v>
       </c>
       <c r="D4" s="9">
-        <f>D3*100/'2019a'!D3</f>
+        <f>D3*100/'2019 - data'!D3</f>
         <v>20.041972717733472</v>
       </c>
       <c r="E4" s="9">
-        <f>E3*100/'2019a'!E3</f>
+        <f>E3*100/'2019 - data'!E3</f>
         <v>18.446026097271648</v>
       </c>
       <c r="F4" s="9">
-        <f>F3*100/'2019a'!F3</f>
+        <f>F3*100/'2019 - data'!F3</f>
         <v>17.134559535333977</v>
       </c>
       <c r="G4" s="9">
-        <f>G3*100/'2019a'!G3</f>
+        <f>G3*100/'2019 - data'!G3</f>
         <v>16.853408029878619</v>
       </c>
       <c r="H4" s="9">
-        <f>H3*100/'2019a'!H3</f>
+        <f>H3*100/'2019 - data'!H3</f>
         <v>17.343793779770245</v>
       </c>
       <c r="I4" s="9" t="e">
-        <f>I3*100/'2019a'!I3</f>
+        <f>I3*100/'2019 - data'!I3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J4" s="9" t="e">
-        <f>J3*100/'2019a'!J3</f>
+        <f>J3*100/'2019 - data'!J3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="9" t="e">
-        <f>K3*100/'2019a'!K3</f>
+        <f>K3*100/'2019 - data'!K3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L4" s="10" t="e">
-        <f>L3*100/'2019a'!L3</f>
+        <f>L3*100/'2019 - data'!L3</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -3259,13 +3551,13 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <f>SUM(A7:L7)</f>
-        <v>251</v>
-      </c>
-      <c r="B6" s="11">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15">
         <f>AVERAGEIF(A8:L8,"&gt;=0")</f>
-        <v>10.992244010342461</v>
+        <v>1.7052845971598423</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3279,82 +3571,82 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>34</v>
-      </c>
-      <c r="B7" s="14">
-        <v>22</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>47</v>
-      </c>
-      <c r="H7" s="14">
-        <v>148</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <f>A7*100/'2019a'!A7</f>
-        <v>1.3793103448275863</v>
-      </c>
-      <c r="B8" s="9">
-        <f>B7*100/'2019a'!B7</f>
-        <v>2.3835319609967498</v>
-      </c>
-      <c r="C8" s="9" t="e">
-        <f>C7*100/'2019a'!C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="9" t="e">
-        <f>D7*100/'2019a'!D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="9" t="e">
-        <f>E7*100/'2019a'!E7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="9" t="e">
-        <f>F7*100/'2019a'!F7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="9">
-        <f>G7*100/'2019a'!G7</f>
-        <v>30.718954248366014</v>
-      </c>
-      <c r="H8" s="9">
-        <f>H7*100/'2019a'!H7</f>
-        <v>9.4871794871794872</v>
-      </c>
-      <c r="I8" s="9" t="e">
-        <f>I7*100/'2019a'!I7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="9" t="e">
-        <f>J7*100/'2019a'!J7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="9" t="e">
-        <f>K7*100/'2019a'!K7</f>
+      <c r="A8" s="13">
+        <f>A7*100/'2019 - data'!A7</f>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="B8" s="13">
+        <f>B7*100/'2019 - data'!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="13">
+        <f>C7*100/'2019 - data'!C7</f>
+        <v>3.2894736842105261</v>
+      </c>
+      <c r="D8" s="13">
+        <f>D7*100/'2019 - data'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <f>E7*100/'2019 - data'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f>F7*100/'2019 - data'!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f>G7*100/'2019 - data'!G7</f>
+        <v>4.225352112676056</v>
+      </c>
+      <c r="H8" s="13">
+        <f>H7*100/'2019 - data'!H7</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="I8" s="13" t="e">
+        <f>I7*100/'2019 - data'!I7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="13" t="e">
+        <f>J7*100/'2019 - data'!J7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="13" t="e">
+        <f>K7*100/'2019 - data'!K7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="10" t="e">
-        <f>L7*100/'2019a'!L7</f>
+        <f>L7*100/'2019 - data'!L7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3426,51 +3718,51 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <f>A11*100/'2019a'!A11</f>
+        <f>A11*100/'2019 - data'!A11</f>
         <v>7.2609633357296905</v>
       </c>
       <c r="B12" s="9">
-        <f>B11*100/'2019a'!B11</f>
+        <f>B11*100/'2019 - data'!B11</f>
         <v>10.248112189859762</v>
       </c>
       <c r="C12" s="9">
-        <f>C11*100/'2019a'!C11</f>
+        <f>C11*100/'2019 - data'!C11</f>
         <v>13.167587476979742</v>
       </c>
       <c r="D12" s="9">
-        <f>D11*100/'2019a'!D11</f>
+        <f>D11*100/'2019 - data'!D11</f>
         <v>16.575875486381324</v>
       </c>
       <c r="E12" s="9">
-        <f>E11*100/'2019a'!E11</f>
+        <f>E11*100/'2019 - data'!E11</f>
         <v>15.545454545454545</v>
       </c>
       <c r="F12" s="9">
-        <f>F11*100/'2019a'!F11</f>
+        <f>F11*100/'2019 - data'!F11</f>
         <v>15.200683176771991</v>
       </c>
       <c r="G12" s="9">
-        <f>G11*100/'2019a'!G11</f>
+        <f>G11*100/'2019 - data'!G11</f>
         <v>17.832167832167833</v>
       </c>
       <c r="H12" s="9">
-        <f>H11*100/'2019a'!H11</f>
+        <f>H11*100/'2019 - data'!H11</f>
         <v>16.047904191616766</v>
       </c>
       <c r="I12" s="9" t="e">
-        <f>I11*100/'2019a'!I11</f>
+        <f>I11*100/'2019 - data'!I11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" s="9" t="e">
-        <f>J11*100/'2019a'!J11</f>
+        <f>J11*100/'2019 - data'!J11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K12" s="9" t="e">
-        <f>K11*100/'2019a'!K11</f>
+        <f>K11*100/'2019 - data'!K11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="10" t="e">
-        <f>L11*100/'2019a'!L11</f>
+        <f>L11*100/'2019 - data'!L11</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3542,57 +3834,57 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <f>A15*100/'2019a'!A15</f>
+        <f>A15*100/'2019 - data'!A15</f>
         <v>12.202380952380953</v>
       </c>
       <c r="B16" s="9">
-        <f>B15*100/'2019a'!B15</f>
+        <f>B15*100/'2019 - data'!B15</f>
         <v>17.739130434782609</v>
       </c>
       <c r="C16" s="9">
-        <f>C15*100/'2019a'!C15</f>
+        <f>C15*100/'2019 - data'!C15</f>
         <v>15.498938428874734</v>
       </c>
       <c r="D16" s="9">
-        <f>D15*100/'2019a'!D15</f>
+        <f>D15*100/'2019 - data'!D15</f>
         <v>17.358490566037737</v>
       </c>
       <c r="E16" s="9">
-        <f>E15*100/'2019a'!E15</f>
+        <f>E15*100/'2019 - data'!E15</f>
         <v>14.921465968586388</v>
       </c>
       <c r="F16" s="9">
-        <f>F15*100/'2019a'!F15</f>
+        <f>F15*100/'2019 - data'!F15</f>
         <v>13.991769547325102</v>
       </c>
       <c r="G16" s="9">
-        <f>G15*100/'2019a'!G15</f>
+        <f>G15*100/'2019 - data'!G15</f>
         <v>10.602409638554217</v>
       </c>
       <c r="H16" s="9">
-        <f>H15*100/'2019a'!H15</f>
+        <f>H15*100/'2019 - data'!H15</f>
         <v>13.301435406698564</v>
       </c>
       <c r="I16" s="9" t="e">
-        <f>I15*100/'2019a'!I15</f>
+        <f>I15*100/'2019 - data'!I15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="9" t="e">
-        <f>J15*100/'2019a'!J15</f>
+        <f>J15*100/'2019 - data'!J15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="9" t="e">
-        <f>K15*100/'2019a'!K15</f>
+        <f>K15*100/'2019 - data'!K15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="10" t="e">
-        <f>L15*100/'2019a'!L15</f>
+        <f>L15*100/'2019 - data'!L15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -3607,13 +3899,13 @@
       <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>14</v>
-      </c>
-      <c r="B18" s="15">
+        <v>251</v>
+      </c>
+      <c r="B18" s="11">
         <f>AVERAGEIF(A20:L20,"&gt;=0")</f>
-        <v>1.7052845971598423</v>
+        <v>10.992244010342461</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3627,109 +3919,109 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="17">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="A19" s="14">
+        <v>34</v>
+      </c>
+      <c r="B19" s="14">
+        <v>22</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>47</v>
+      </c>
+      <c r="H19" s="14">
+        <v>148</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f>A19*100/'2019 - data'!A19</f>
+        <v>1.3793103448275863</v>
+      </c>
+      <c r="B20" s="9">
+        <f>B19*100/'2019 - data'!B19</f>
+        <v>2.3835319609967498</v>
+      </c>
+      <c r="C20" s="9" t="e">
+        <f>C19*100/'2019 - data'!C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="9" t="e">
+        <f>D19*100/'2019 - data'!D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="9" t="e">
+        <f>E19*100/'2019 - data'!E19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="9" t="e">
+        <f>F19*100/'2019 - data'!F19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="9">
+        <f>G19*100/'2019 - data'!G19</f>
+        <v>30.718954248366014</v>
+      </c>
+      <c r="H20" s="9">
+        <f>H19*100/'2019 - data'!H19</f>
+        <v>9.4871794871794872</v>
+      </c>
+      <c r="I20" s="9" t="e">
+        <f>I19*100/'2019 - data'!I19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="9" t="e">
+        <f>J19*100/'2019 - data'!J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="9" t="e">
+        <f>K19*100/'2019 - data'!K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="10" t="e">
+        <f>L19*100/'2019 - data'!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <f>A19*100/'2019a'!A19</f>
-        <v>1.9607843137254901</v>
-      </c>
-      <c r="B20" s="13">
-        <f>B19*100/'2019a'!B19</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
-        <f>C19*100/'2019a'!C19</f>
-        <v>3.2894736842105261</v>
-      </c>
-      <c r="D20" s="13">
-        <f>D19*100/'2019a'!D19</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <f>E19*100/'2019a'!E19</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <f>F19*100/'2019a'!F19</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
-        <f>G19*100/'2019a'!G19</f>
-        <v>4.225352112676056</v>
-      </c>
-      <c r="H20" s="13">
-        <f>H19*100/'2019a'!H19</f>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="I20" s="13" t="e">
-        <f>I19*100/'2019a'!I19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="13" t="e">
-        <f>J19*100/'2019a'!J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="13" t="e">
-        <f>K19*100/'2019a'!K19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="10" t="e">
-        <f>L19*100/'2019a'!L19</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM(A23:L23)</f>
-        <v>5151</v>
+        <v>212</v>
       </c>
       <c r="B22" s="15">
         <f>AVERAGEIF(A24:L24,"&gt;0")</f>
-        <v>14.588366411844035</v>
+        <v>21.327967806841045</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -3744,112 +4036,580 @@
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f>SUM(A3,A7,A11,A15,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>212</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="e">
+        <f>A23*100/'2019 - data'!A23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B24" s="13" t="e">
+        <f>B23*100/'2019 - data'!B23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="13" t="e">
+        <f>C23*100/'2019 - data'!C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="13" t="e">
+        <f>D23*100/'2019 - data'!D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="13" t="e">
+        <f>E23*100/'2019 - data'!E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="13" t="e">
+        <f>F23*100/'2019 - data'!F23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="13" t="e">
+        <f>G23*100/'2019 - data'!G23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="13">
+        <f>H23*100/'2019 - data'!H23</f>
+        <v>21.327967806841045</v>
+      </c>
+      <c r="I24" s="13" t="e">
+        <f>I23*100/'2019 - data'!I23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="13" t="e">
+        <f>J23*100/'2019 - data'!J23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="13" t="e">
+        <f>K23*100/'2019 - data'!K23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="10" t="e">
+        <f>L23*100/'2019 - data'!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM(A27:L27)</f>
+        <v>28</v>
+      </c>
+      <c r="B26" s="15">
+        <f>AVERAGEIF(A28:L28,"&gt;0")</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>28</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="e">
+        <f>A27*100/'2019 - data'!A27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B28" s="13" t="e">
+        <f>B27*100/'2019 - data'!B27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" s="13" t="e">
+        <f>C27*100/'2019 - data'!C27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="13" t="e">
+        <f>D27*100/'2019 - data'!D27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="13" t="e">
+        <f>E27*100/'2019 - data'!E27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="13" t="e">
+        <f>F27*100/'2019 - data'!F27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="13" t="e">
+        <f>G27*100/'2019 - data'!G27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="13">
+        <f>H27*100/'2019 - data'!H27</f>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="I28" s="13" t="e">
+        <f>I27*100/'2019 - data'!I27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="13" t="e">
+        <f>J27*100/'2019 - data'!J27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="13" t="e">
+        <f>K27*100/'2019 - data'!K27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="10" t="e">
+        <f>L27*100/'2019 - data'!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f>SUM(A31:L31)</f>
+        <v>4</v>
+      </c>
+      <c r="B30" s="15">
+        <f>AVERAGEIF(A32:L32,"&gt;0")</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="e">
+        <f>A31*100/'2019 - data'!A31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B32" s="13" t="e">
+        <f>B31*100/'2019 - data'!B31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32" s="13" t="e">
+        <f>C31*100/'2019 - data'!C31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="13" t="e">
+        <f>D31*100/'2019 - data'!D31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="13" t="e">
+        <f>E31*100/'2019 - data'!E31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="13" t="e">
+        <f>F31*100/'2019 - data'!F31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="13" t="e">
+        <f>G31*100/'2019 - data'!G31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="13">
+        <f>H31*100/'2019 - data'!H31</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="I32" s="13" t="e">
+        <f>I31*100/'2019 - data'!I31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="13" t="e">
+        <f>J31*100/'2019 - data'!J31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="13" t="e">
+        <f>K31*100/'2019 - data'!K31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="10" t="e">
+        <f>L31*100/'2019 - data'!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f>SUM(A35:L35)</f>
+        <v>11</v>
+      </c>
+      <c r="B34" s="15">
+        <f>AVERAGEIF(A36:L36,"&gt;0")</f>
+        <v>25</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>11</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="e">
+        <f>A35*100/'2019 - data'!A35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B36" s="13" t="e">
+        <f>B35*100/'2019 - data'!B35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" s="13" t="e">
+        <f>C35*100/'2019 - data'!C35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="13" t="e">
+        <f>D35*100/'2019 - data'!D35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="13" t="e">
+        <f>E35*100/'2019 - data'!E35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="13" t="e">
+        <f>F35*100/'2019 - data'!F35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="13" t="e">
+        <f>G35*100/'2019 - data'!G35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="13">
+        <f>H35*100/'2019 - data'!H35</f>
+        <v>25</v>
+      </c>
+      <c r="I36" s="13" t="e">
+        <f>I35*100/'2019 - data'!I35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="13" t="e">
+        <f>J35*100/'2019 - data'!J35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="13" t="e">
+        <f>K35*100/'2019 - data'!K35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="10" t="e">
+        <f>L35*100/'2019 - data'!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f>SUM(A39:L39)</f>
+        <v>5406</v>
+      </c>
+      <c r="B38" s="15">
+        <f>AVERAGEIF(A40:L40,"&gt;0")</f>
+        <v>14.708244151916855</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f>SUM(A3,A7,A11,A15,A19,A23,A27,A31,A35)</f>
         <v>635</v>
       </c>
-      <c r="B23" s="3">
-        <f t="shared" ref="B23:L23" si="0">SUM(B3,B7,B11,B15,B19)</f>
+      <c r="B39" s="3">
+        <f t="shared" ref="B39:L39" si="0">SUM(B3,B7,B11,B15,B19,B23,B27,B31,B35)</f>
         <v>568</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C39" s="3">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D39" s="3">
         <f t="shared" si="0"/>
         <v>687</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E39" s="3">
         <f t="shared" si="0"/>
         <v>539</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F39" s="3">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G39" s="3">
         <f t="shared" si="0"/>
         <v>553</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H39" s="3">
         <f t="shared" si="0"/>
-        <v>1041</v>
-      </c>
-      <c r="I23" s="3">
+        <v>1296</v>
+      </c>
+      <c r="I39" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J39" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K39" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <f>A23*100/'2019a'!A23</f>
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <f>A39*100/'2019 - data'!A39</f>
         <v>7.1930222020842773</v>
       </c>
-      <c r="B24" s="13">
-        <f>B23*100/'2019a'!B23</f>
+      <c r="B40" s="13">
+        <f>B39*100/'2019 - data'!B39</f>
         <v>12.684234033050469</v>
       </c>
-      <c r="C24" s="13">
-        <f>C23*100/'2019a'!C23</f>
+      <c r="C40" s="13">
+        <f>C39*100/'2019 - data'!C39</f>
         <v>16.301327570237728</v>
       </c>
-      <c r="D24" s="13">
-        <f>D23*100/'2019a'!D23</f>
+      <c r="D40" s="13">
+        <f>D39*100/'2019 - data'!D39</f>
         <v>17.624422780913289</v>
       </c>
-      <c r="E24" s="13">
-        <f>E23*100/'2019a'!E23</f>
+      <c r="E40" s="13">
+        <f>E39*100/'2019 - data'!E39</f>
         <v>16.610169491525422</v>
       </c>
-      <c r="F24" s="13">
-        <f>F23*100/'2019a'!F23</f>
+      <c r="F40" s="13">
+        <f>F39*100/'2019 - data'!F39</f>
         <v>15.927794000530927</v>
       </c>
-      <c r="G24" s="13">
-        <f>G23*100/'2019a'!G23</f>
+      <c r="G40" s="13">
+        <f>G39*100/'2019 - data'!G39</f>
         <v>15.564311849141571</v>
       </c>
-      <c r="H24" s="13">
-        <f>H23*100/'2019a'!H23</f>
-        <v>14.801649367268592</v>
-      </c>
-      <c r="I24" s="13" t="e">
-        <f>I23*100/'2019a'!I23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="13" t="e">
-        <f>J23*100/'2019a'!J23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="13" t="e">
-        <f>K23*100/'2019a'!K23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="10" t="e">
-        <f>L23*100/'2019a'!L23</f>
+      <c r="H40" s="13">
+        <f>H39*100/'2019 - data'!H39</f>
+        <v>15.760671287851149</v>
+      </c>
+      <c r="I40" s="13" t="e">
+        <f>I39*100/'2019 - data'!I39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="13" t="e">
+        <f>J39*100/'2019 - data'!J39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="13" t="e">
+        <f>K39*100/'2019 - data'!K39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="10" t="e">
+        <f>L39*100/'2019 - data'!L39</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A21:L21"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3862,10 +4622,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3966,7 +4726,7 @@
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -3983,15 +4743,15 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>SUM(A7:L7)</f>
-        <v>5101</v>
+        <v>736</v>
       </c>
       <c r="B6" s="11">
         <f>100-'2019 - Multimedia'!B6</f>
-        <v>89.007755989657539</v>
+        <v>98.294715402840154</v>
       </c>
       <c r="C6" s="3">
         <f>TRUNC(A6/A8)</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -4005,28 +4765,28 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2465</v>
+        <v>102</v>
       </c>
       <c r="B7" s="3">
-        <v>923</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H7" s="3">
-        <v>1560</v>
+        <v>24</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -4035,7 +4795,6 @@
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <f>A4</f>
         <v>243</v>
       </c>
       <c r="B8" s="7">
@@ -4236,7 +4995,7 @@
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -4253,15 +5012,15 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>736</v>
+        <v>5101</v>
       </c>
       <c r="B18" s="11">
         <f>100-'2019 - Multimedia'!B18</f>
-        <v>98.294715402840154</v>
+        <v>89.007755989657539</v>
       </c>
       <c r="C18" s="3">
         <f>TRUNC(A18/A20)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4275,28 +5034,28 @@
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>102</v>
+        <v>2465</v>
       </c>
       <c r="B19" s="3">
-        <v>18</v>
+        <v>923</v>
       </c>
       <c r="C19" s="3">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H19" s="3">
-        <v>24</v>
+        <v>1560</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -4325,33 +5084,33 @@
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="A21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>SUM(A23:L23)</f>
-        <v>38041</v>
+        <v>994</v>
       </c>
       <c r="B22" s="11">
         <f>100-'2019 - Multimedia'!B22</f>
-        <v>85.411633588155965</v>
+        <v>78.672032193158955</v>
       </c>
       <c r="C22" s="3">
         <f>TRUNC(A22/A24)</f>
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4364,59 +5123,38 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <f>SUM(A3,A7,A11,A15,A19)</f>
-        <v>8828</v>
+      <c r="A23" s="2">
+        <v>0</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" ref="B23:L23" si="0">SUM(B3,B7,B11,B15,B19)</f>
-        <v>4478</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>3239</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>3898</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>3245</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>3767</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>3553</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
-        <v>7033</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f>A4</f>
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7">
         <v>369</v>
@@ -4435,30 +5173,397 @@
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="A25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f>SUM(A27:L27)</f>
+        <v>126</v>
+      </c>
+      <c r="B26" s="11">
+        <f>100-'2019 - Multimedia'!B26</f>
+        <v>77.777777777777771</v>
+      </c>
+      <c r="C26" s="3">
+        <f>TRUNC(A26/A28)</f>
+        <v>4</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>126</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F28" s="16"/>
+      <c r="A28" s="6">
+        <f>A24</f>
+        <v>31</v>
+      </c>
+      <c r="B28" s="7">
+        <v>369</v>
+      </c>
+      <c r="C28" s="7">
+        <v>369</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f>SUM(A31:L31)</f>
+        <v>26</v>
+      </c>
+      <c r="B30" s="11">
+        <f>100-'2019 - Multimedia'!B30</f>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="C30" s="3">
+        <f>TRUNC(A30/A32)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>26</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f>A24</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="7">
+        <v>369</v>
+      </c>
+      <c r="C32" s="7">
+        <v>369</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f>SUM(A35:L35)</f>
+        <v>44</v>
+      </c>
+      <c r="B34" s="11">
+        <f>100-'2019 - Multimedia'!B34</f>
+        <v>75</v>
+      </c>
+      <c r="C34" s="3">
+        <f>TRUNC(A34/A36)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>44</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f>A24</f>
+        <v>31</v>
+      </c>
+      <c r="B36" s="7">
+        <v>369</v>
+      </c>
+      <c r="C36" s="7">
+        <v>369</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f>SUM(A39:L39)</f>
+        <v>39231</v>
+      </c>
+      <c r="B38" s="11">
+        <f>100-'2019 - Multimedia'!B38</f>
+        <v>85.291755848083142</v>
+      </c>
+      <c r="C38" s="3">
+        <f>TRUNC(A38/A40)</f>
+        <v>161</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f>SUM(A3,A7,A11,A15,A19,A23,A27,A31,A35)</f>
+        <v>8828</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" ref="B39:L39" si="0">SUM(B3,B7,B11,B15,B19,B23,B27,B31,B35)</f>
+        <v>4478</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>3239</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>3898</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>3245</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>3767</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>3553</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>8223</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <f>A4</f>
+        <v>243</v>
+      </c>
+      <c r="B40" s="7">
+        <v>369</v>
+      </c>
+      <c r="C40" s="7">
+        <v>369</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A21:L21"/>
+  <mergeCells count="10">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Main/Data/data.xlsx
+++ b/Main/Data/data.xlsx
@@ -3412,8 +3412,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3437,11 +3437,11 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>3058</v>
+        <v>5158</v>
       </c>
       <c r="B2" s="11">
         <f>AVERAGEIF(A4:L4,"&gt;=0")</f>
-        <v>17.093123951040674</v>
+        <v>17.233984882080641</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3479,8 +3479,12 @@
       <c r="H3" s="1">
         <v>619</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1">
+        <v>1262</v>
+      </c>
+      <c r="J3" s="1">
+        <v>838</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="4"/>
     </row>
@@ -3517,13 +3521,13 @@
         <f>H3*100/'2019 - data'!H3</f>
         <v>17.343793779770245</v>
       </c>
-      <c r="I4" s="9" t="e">
+      <c r="I4" s="9">
         <f>I3*100/'2019 - data'!I3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" s="9" t="e">
+        <v>20.869852819579958</v>
+      </c>
+      <c r="J4" s="9">
         <f>J3*100/'2019 - data'!J3</f>
-        <v>#DIV/0!</v>
+        <v>14.725004392901072</v>
       </c>
       <c r="K4" s="9" t="e">
         <f>K3*100/'2019 - data'!K3</f>
@@ -3553,11 +3557,11 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM(A7:L7)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="15">
         <f>AVERAGEIF(A8:L8,"&gt;=0")</f>
-        <v>1.7052845971598423</v>
+        <v>2.2228135363137325</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3595,8 +3599,12 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
     </row>
@@ -3633,13 +3641,13 @@
         <f>H7*100/'2019 - data'!H7</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="I8" s="13" t="e">
+      <c r="I8" s="13">
         <f>I7*100/'2019 - data'!I7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="13" t="e">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="J8" s="13">
         <f>J7*100/'2019 - data'!J7</f>
-        <v>#DIV/0!</v>
+        <v>3.0303030303030303</v>
       </c>
       <c r="K8" s="13" t="e">
         <f>K7*100/'2019 - data'!K7</f>
@@ -3669,11 +3677,11 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>1086</v>
+        <v>1310</v>
       </c>
       <c r="B10" s="11">
         <f>AVERAGEIF(A12:L12,"&gt;=0")</f>
-        <v>13.984843529370206</v>
+        <v>13.395276841346378</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3711,8 +3719,12 @@
       <c r="H11" s="3">
         <v>134</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3">
+        <v>103</v>
+      </c>
+      <c r="J11" s="3">
+        <v>121</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="4"/>
     </row>
@@ -3749,13 +3761,13 @@
         <f>H11*100/'2019 - data'!H11</f>
         <v>16.047904191616766</v>
       </c>
-      <c r="I12" s="9" t="e">
+      <c r="I12" s="9">
         <f>I11*100/'2019 - data'!I11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="9" t="e">
+        <v>11.990686845168801</v>
+      </c>
+      <c r="J12" s="9">
         <f>J11*100/'2019 - data'!J11</f>
-        <v>#DIV/0!</v>
+        <v>10.083333333333334</v>
       </c>
       <c r="K12" s="9" t="e">
         <f>K11*100/'2019 - data'!K11</f>
@@ -3785,11 +3797,11 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>742</v>
+        <v>1184</v>
       </c>
       <c r="B14" s="11">
         <f>AVERAGEIF(A16:L16,"&gt;=0")</f>
-        <v>14.452002617905038</v>
+        <v>14.335997067951087</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3827,8 +3839,12 @@
       <c r="H15" s="3">
         <v>139</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>258</v>
+      </c>
+      <c r="J15" s="3">
+        <v>184</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
     </row>
@@ -3865,13 +3881,13 @@
         <f>H15*100/'2019 - data'!H15</f>
         <v>13.301435406698564</v>
       </c>
-      <c r="I16" s="9" t="e">
+      <c r="I16" s="9">
         <f>I15*100/'2019 - data'!I15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="9" t="e">
+        <v>14.675767918088738</v>
+      </c>
+      <c r="J16" s="9">
         <f>J15*100/'2019 - data'!J15</f>
-        <v>#DIV/0!</v>
+        <v>13.068181818181818</v>
       </c>
       <c r="K16" s="9" t="e">
         <f>K15*100/'2019 - data'!K15</f>
@@ -3901,11 +3917,11 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>251</v>
+        <v>1202</v>
       </c>
       <c r="B18" s="11">
         <f>AVERAGEIF(A20:L20,"&gt;=0")</f>
-        <v>10.992244010342461</v>
+        <v>12.391758223893996</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3943,8 +3959,12 @@
       <c r="H19" s="14">
         <v>148</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="I19" s="14">
+        <v>493</v>
+      </c>
+      <c r="J19" s="14">
+        <v>458</v>
+      </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
@@ -3981,13 +4001,13 @@
         <f>H19*100/'2019 - data'!H19</f>
         <v>9.4871794871794872</v>
       </c>
-      <c r="I20" s="9" t="e">
+      <c r="I20" s="9">
         <f>I19*100/'2019 - data'!I19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="9" t="e">
+        <v>19.680638722554889</v>
+      </c>
+      <c r="J20" s="9">
         <f>J19*100/'2019 - data'!J19</f>
-        <v>#DIV/0!</v>
+        <v>10.700934579439252</v>
       </c>
       <c r="K20" s="9" t="e">
         <f>K19*100/'2019 - data'!K19</f>
@@ -4017,11 +4037,11 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM(A23:L23)</f>
-        <v>212</v>
+        <v>885</v>
       </c>
       <c r="B22" s="15">
         <f>AVERAGEIF(A24:L24,"&gt;0")</f>
-        <v>21.327967806841045</v>
+        <v>18.926672046318984</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4059,8 +4079,12 @@
       <c r="H23" s="3">
         <v>212</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3">
+        <v>287</v>
+      </c>
+      <c r="J23" s="3">
+        <v>386</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
     </row>
@@ -4097,13 +4121,13 @@
         <f>H23*100/'2019 - data'!H23</f>
         <v>21.327967806841045</v>
       </c>
-      <c r="I24" s="13" t="e">
+      <c r="I24" s="13">
         <f>I23*100/'2019 - data'!I23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="13" t="e">
+        <v>21.354166666666668</v>
+      </c>
+      <c r="J24" s="13">
         <f>J23*100/'2019 - data'!J23</f>
-        <v>#DIV/0!</v>
+        <v>14.097881665449233</v>
       </c>
       <c r="K24" s="13" t="e">
         <f>K23*100/'2019 - data'!K23</f>
@@ -4133,11 +4157,11 @@
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM(A27:L27)</f>
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B26" s="15">
         <f>AVERAGEIF(A28:L28,"&gt;0")</f>
-        <v>22.222222222222221</v>
+        <v>20.046133089611349</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4175,8 +4199,12 @@
       <c r="H27" s="3">
         <v>28</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3">
+        <v>40</v>
+      </c>
+      <c r="J27" s="3">
+        <v>26</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="4"/>
     </row>
@@ -4213,13 +4241,13 @@
         <f>H27*100/'2019 - data'!H27</f>
         <v>22.222222222222221</v>
       </c>
-      <c r="I28" s="13" t="e">
+      <c r="I28" s="13">
         <f>I27*100/'2019 - data'!I27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="13" t="e">
+        <v>14.492753623188406</v>
+      </c>
+      <c r="J28" s="13">
         <f>J27*100/'2019 - data'!J27</f>
-        <v>#DIV/0!</v>
+        <v>23.423423423423422</v>
       </c>
       <c r="K28" s="13" t="e">
         <f>K27*100/'2019 - data'!K27</f>
@@ -4249,11 +4277,11 @@
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>SUM(A31:L31)</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B30" s="15">
         <f>AVERAGEIF(A32:L32,"&gt;0")</f>
-        <v>15.384615384615385</v>
+        <v>13.044871794871796</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4291,8 +4319,12 @@
       <c r="H31" s="3">
         <v>4</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="I31" s="3">
+        <v>9</v>
+      </c>
+      <c r="J31" s="3">
+        <v>15</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
     </row>
@@ -4329,13 +4361,13 @@
         <f>H31*100/'2019 - data'!H31</f>
         <v>15.384615384615385</v>
       </c>
-      <c r="I32" s="13" t="e">
+      <c r="I32" s="13">
         <f>I31*100/'2019 - data'!I31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="13" t="e">
+        <v>11.25</v>
+      </c>
+      <c r="J32" s="13">
         <f>J31*100/'2019 - data'!J31</f>
-        <v>#DIV/0!</v>
+        <v>12.5</v>
       </c>
       <c r="K32" s="13" t="e">
         <f>K31*100/'2019 - data'!K31</f>
@@ -4365,11 +4397,11 @@
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f>SUM(A35:L35)</f>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B34" s="15">
         <f>AVERAGEIF(A36:L36,"&gt;0")</f>
-        <v>25</v>
+        <v>27.132066276803119</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4407,8 +4439,12 @@
       <c r="H35" s="3">
         <v>11</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="3">
+        <v>18</v>
+      </c>
+      <c r="J35" s="3">
+        <v>13</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
     </row>
@@ -4445,13 +4481,13 @@
         <f>H35*100/'2019 - data'!H35</f>
         <v>25</v>
       </c>
-      <c r="I36" s="13" t="e">
+      <c r="I36" s="13">
         <f>I35*100/'2019 - data'!I35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="13" t="e">
+        <v>47.368421052631582</v>
+      </c>
+      <c r="J36" s="13">
         <f>J35*100/'2019 - data'!J35</f>
-        <v>#DIV/0!</v>
+        <v>9.0277777777777786</v>
       </c>
       <c r="K36" s="13" t="e">
         <f>K35*100/'2019 - data'!K35</f>
@@ -4481,11 +4517,11 @@
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f>SUM(A39:L39)</f>
-        <v>5406</v>
+        <v>9920</v>
       </c>
       <c r="B38" s="15">
         <f>AVERAGEIF(A40:L40,"&gt;0")</f>
-        <v>14.708244151916855</v>
+        <v>14.975077173046543</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4533,11 +4569,11 @@
       </c>
       <c r="I39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2472</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2042</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
@@ -4581,13 +4617,13 @@
         <f>H39*100/'2019 - data'!H39</f>
         <v>15.760671287851149</v>
       </c>
-      <c r="I40" s="13" t="e">
+      <c r="I40" s="13">
         <f>I39*100/'2019 - data'!I39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="13" t="e">
+        <v>19.099126941203739</v>
+      </c>
+      <c r="J40" s="13">
         <f>J39*100/'2019 - data'!J39</f>
-        <v>#DIV/0!</v>
+        <v>12.985691573926868</v>
       </c>
       <c r="K40" s="13" t="e">
         <f>K39*100/'2019 - data'!K39</f>
@@ -4625,7 +4661,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="A5" sqref="A5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4653,15 +4689,15 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>18796</v>
+        <v>30534</v>
       </c>
       <c r="B2" s="11">
         <f>100-'2019 - Multimedia'!B2</f>
-        <v>82.906876048959333</v>
+        <v>82.766015117919352</v>
       </c>
       <c r="C2" s="3">
         <f>TRUNC(A2/A4)</f>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4698,15 +4734,19 @@
       <c r="H3" s="3">
         <v>3569</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="3">
+        <v>6047</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5691</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>_xlfn.DAYS("1/9/2019","1/1/2019")</f>
-        <v>243</v>
+        <f>_xlfn.DAYS("1/11/2019","1/1/2019")</f>
+        <v>304</v>
       </c>
       <c r="B4" s="7">
         <v>369</v>
@@ -4743,11 +4783,11 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>SUM(A7:L7)</f>
-        <v>736</v>
+        <v>805</v>
       </c>
       <c r="B6" s="11">
         <f>100-'2019 - Multimedia'!B6</f>
-        <v>98.294715402840154</v>
+        <v>97.777186463686263</v>
       </c>
       <c r="C6" s="3">
         <f>TRUNC(A6/A8)</f>
@@ -4788,8 +4828,12 @@
       <c r="H7" s="3">
         <v>24</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3">
+        <v>33</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="4"/>
     </row>
@@ -4832,11 +4876,11 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>8081</v>
+        <v>10140</v>
       </c>
       <c r="B10" s="11">
         <f>100-'2019 - Multimedia'!B10</f>
-        <v>86.01515647062979</v>
+        <v>86.604723158653627</v>
       </c>
       <c r="C10" s="3">
         <f>TRUNC(A10/A12)</f>
@@ -4877,15 +4921,19 @@
       <c r="H11" s="3">
         <v>835</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3">
+        <v>859</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1200</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>A4</f>
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="B12" s="7">
         <v>369</v>
@@ -4922,15 +4970,15 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>5327</v>
+        <v>8493</v>
       </c>
       <c r="B14" s="11">
         <f>100-'2019 - Multimedia'!B14</f>
-        <v>85.547997382094962</v>
+        <v>85.664002932048916</v>
       </c>
       <c r="C14" s="3">
         <f>TRUNC(A14/A16)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4967,15 +5015,19 @@
       <c r="H15" s="3">
         <v>1045</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>1758</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1408</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f>A4</f>
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="B16" s="7">
         <v>369</v>
@@ -5012,15 +5064,15 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>5101</v>
+        <v>11886</v>
       </c>
       <c r="B18" s="11">
         <f>100-'2019 - Multimedia'!B18</f>
-        <v>89.007755989657539</v>
+        <v>87.608241776105999</v>
       </c>
       <c r="C18" s="3">
         <f>TRUNC(A18/A20)</f>
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -5057,15 +5109,19 @@
       <c r="H19" s="3">
         <v>1560</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3">
+        <v>2505</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4280</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f>A4</f>
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="B20" s="7">
         <v>369</v>
@@ -5102,15 +5158,15 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>SUM(A23:L23)</f>
-        <v>994</v>
+        <v>5076</v>
       </c>
       <c r="B22" s="11">
         <f>100-'2019 - Multimedia'!B22</f>
-        <v>78.672032193158955</v>
+        <v>81.073327953681016</v>
       </c>
       <c r="C22" s="3">
         <f>TRUNC(A22/A24)</f>
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -5147,8 +5203,12 @@
       <c r="H23" s="3">
         <v>994</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3">
+        <v>1344</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2738</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
     </row>
@@ -5191,15 +5251,15 @@
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>SUM(A27:L27)</f>
-        <v>126</v>
+        <v>513</v>
       </c>
       <c r="B26" s="11">
         <f>100-'2019 - Multimedia'!B26</f>
-        <v>77.777777777777771</v>
+        <v>79.953866910388655</v>
       </c>
       <c r="C26" s="3">
         <f>TRUNC(A26/A28)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -5236,8 +5296,12 @@
       <c r="H27" s="3">
         <v>126</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3">
+        <v>276</v>
+      </c>
+      <c r="J27" s="3">
+        <v>111</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="4"/>
     </row>
@@ -5281,15 +5345,15 @@
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>SUM(A31:L31)</f>
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="B30" s="11">
         <f>100-'2019 - Multimedia'!B30</f>
-        <v>84.615384615384613</v>
+        <v>86.955128205128204</v>
       </c>
       <c r="C30" s="3">
         <f>TRUNC(A30/A32)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5326,8 +5390,12 @@
       <c r="H31" s="3">
         <v>26</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="I31" s="3">
+        <v>80</v>
+      </c>
+      <c r="J31" s="3">
+        <v>120</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
     </row>
@@ -5371,15 +5439,15 @@
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>SUM(A35:L35)</f>
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="B34" s="11">
         <f>100-'2019 - Multimedia'!B34</f>
-        <v>75</v>
+        <v>72.867933723196884</v>
       </c>
       <c r="C34" s="3">
         <f>TRUNC(A34/A36)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -5416,8 +5484,12 @@
       <c r="H35" s="3">
         <v>44</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="3">
+        <v>38</v>
+      </c>
+      <c r="J35" s="3">
+        <v>144</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
     </row>
@@ -5461,15 +5533,15 @@
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>SUM(A39:L39)</f>
-        <v>39231</v>
+        <v>67899</v>
       </c>
       <c r="B38" s="11">
         <f>100-'2019 - Multimedia'!B38</f>
-        <v>85.291755848083142</v>
+        <v>85.024922826953457</v>
       </c>
       <c r="C38" s="3">
         <f>TRUNC(A38/A40)</f>
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -5516,11 +5588,11 @@
       </c>
       <c r="I39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12943</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15725</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
@@ -5534,7 +5606,7 @@
     <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f>A4</f>
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="B40" s="7">
         <v>369</v>

--- a/Main/Data/data.xlsx
+++ b/Main/Data/data.xlsx
@@ -2771,7 +2771,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3412,8 +3412,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3437,11 +3437,11 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>5158</v>
+        <v>6601</v>
       </c>
       <c r="B2" s="11">
         <f>AVERAGEIF(A4:L4,"&gt;=0")</f>
-        <v>17.233984882080641</v>
+        <v>17.055249390379966</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3485,8 +3485,12 @@
       <c r="J3" s="1">
         <v>838</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="1">
+        <v>732</v>
+      </c>
+      <c r="L3" s="4">
+        <v>711</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -3529,13 +3533,13 @@
         <f>J3*100/'2019 - data'!J3</f>
         <v>14.725004392901072</v>
       </c>
-      <c r="K4" s="9" t="e">
+      <c r="K4" s="9">
         <f>K3*100/'2019 - data'!K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="10" t="e">
+        <v>17.70253929866989</v>
+      </c>
+      <c r="L4" s="10">
         <f>L3*100/'2019 - data'!L3</f>
-        <v>#DIV/0!</v>
+        <v>14.620604565083282</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3557,11 +3561,11 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM(A7:L7)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="15">
         <f>AVERAGEIF(A8:L8,"&gt;=0")</f>
-        <v>2.2228135363137325</v>
+        <v>4.0240617853119494</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -3605,8 +3609,12 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -3649,13 +3657,13 @@
         <f>J7*100/'2019 - data'!J7</f>
         <v>3.0303030303030303</v>
       </c>
-      <c r="K8" s="13" t="e">
+      <c r="K8" s="13">
         <f>K7*100/'2019 - data'!K7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="10" t="e">
+        <v>6.0606060606060606</v>
+      </c>
+      <c r="L8" s="10">
         <f>L7*100/'2019 - data'!L7</f>
-        <v>#DIV/0!</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3677,11 +3685,11 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>1310</v>
+        <v>1522</v>
       </c>
       <c r="B10" s="11">
         <f>AVERAGEIF(A12:L12,"&gt;=0")</f>
-        <v>13.395276841346378</v>
+        <v>13.069435192404347</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -3725,8 +3733,12 @@
       <c r="J11" s="3">
         <v>121</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="3">
+        <v>96</v>
+      </c>
+      <c r="L11" s="4">
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -3769,13 +3781,13 @@
         <f>J11*100/'2019 - data'!J11</f>
         <v>10.083333333333334</v>
       </c>
-      <c r="K12" s="9" t="e">
+      <c r="K12" s="9">
         <f>K11*100/'2019 - data'!K11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="10" t="e">
+        <v>10.859728506787331</v>
+      </c>
+      <c r="L12" s="10">
         <f>L11*100/'2019 - data'!L11</f>
-        <v>#DIV/0!</v>
+        <v>12.020725388601036</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,11 +3809,11 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>1184</v>
+        <v>1540</v>
       </c>
       <c r="B14" s="11">
         <f>AVERAGEIF(A16:L16,"&gt;=0")</f>
-        <v>14.335997067951087</v>
+        <v>14.33498815584781</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3845,8 +3857,12 @@
       <c r="J15" s="3">
         <v>184</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="3">
+        <v>167</v>
+      </c>
+      <c r="L15" s="4">
+        <v>189</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
@@ -3889,13 +3905,13 @@
         <f>J15*100/'2019 - data'!J15</f>
         <v>13.068181818181818</v>
       </c>
-      <c r="K16" s="9" t="e">
+      <c r="K16" s="9">
         <f>K15*100/'2019 - data'!K15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="10" t="e">
+        <v>13.813068651778329</v>
+      </c>
+      <c r="L16" s="10">
         <f>L15*100/'2019 - data'!L15</f>
-        <v>#DIV/0!</v>
+        <v>14.846818538884525</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,11 +3933,11 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>1202</v>
+        <v>1741</v>
       </c>
       <c r="B18" s="11">
         <f>AVERAGEIF(A20:L20,"&gt;=0")</f>
-        <v>12.391758223893996</v>
+        <v>11.839749813857116</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3965,8 +3981,12 @@
       <c r="J19" s="14">
         <v>458</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="14">
+        <v>220</v>
+      </c>
+      <c r="L19" s="14">
+        <v>319</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
@@ -4009,13 +4029,13 @@
         <f>J19*100/'2019 - data'!J19</f>
         <v>10.700934579439252</v>
       </c>
-      <c r="K20" s="9" t="e">
+      <c r="K20" s="9">
         <f>K19*100/'2019 - data'!K19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="10" t="e">
+        <v>11.190233977619531</v>
+      </c>
+      <c r="L20" s="10">
         <f>L19*100/'2019 - data'!L19</f>
-        <v>#DIV/0!</v>
+        <v>9.1772151898734169</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4037,11 +4057,11 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM(A23:L23)</f>
-        <v>885</v>
+        <v>1415</v>
       </c>
       <c r="B22" s="15">
         <f>AVERAGEIF(A24:L24,"&gt;0")</f>
-        <v>18.926672046318984</v>
+        <v>19.059577784761945</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4085,8 +4105,12 @@
       <c r="J23" s="3">
         <v>386</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="3">
+        <v>253</v>
+      </c>
+      <c r="L23" s="4">
+        <v>277</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="e">
@@ -4129,13 +4153,13 @@
         <f>J23*100/'2019 - data'!J23</f>
         <v>14.097881665449233</v>
       </c>
-      <c r="K24" s="13" t="e">
+      <c r="K24" s="13">
         <f>K23*100/'2019 - data'!K23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="10" t="e">
+        <v>20.669934640522875</v>
+      </c>
+      <c r="L24" s="10">
         <f>L23*100/'2019 - data'!L23</f>
-        <v>#DIV/0!</v>
+        <v>17.847938144329898</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4157,11 +4181,11 @@
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM(A27:L27)</f>
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B26" s="15">
         <f>AVERAGEIF(A28:L28,"&gt;0")</f>
-        <v>20.046133089611349</v>
+        <v>22.23351175771192</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4205,8 +4229,12 @@
       <c r="J27" s="3">
         <v>26</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="3">
+        <v>15</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="e">
@@ -4249,13 +4277,13 @@
         <f>J27*100/'2019 - data'!J27</f>
         <v>23.423423423423422</v>
       </c>
-      <c r="K28" s="13" t="e">
+      <c r="K28" s="13">
         <f>K27*100/'2019 - data'!K27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="10" t="e">
+        <v>28.30188679245283</v>
+      </c>
+      <c r="L28" s="10">
         <f>L27*100/'2019 - data'!L27</f>
-        <v>#DIV/0!</v>
+        <v>22.727272727272727</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4277,11 +4305,11 @@
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>SUM(A31:L31)</f>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B30" s="15">
         <f>AVERAGEIF(A32:L32,"&gt;0")</f>
-        <v>13.044871794871796</v>
+        <v>16.326923076923077</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -4325,8 +4353,12 @@
       <c r="J31" s="3">
         <v>15</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="3">
+        <v>6</v>
+      </c>
+      <c r="L31" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="e">
@@ -4369,13 +4401,13 @@
         <f>J31*100/'2019 - data'!J31</f>
         <v>12.5</v>
       </c>
-      <c r="K32" s="13" t="e">
+      <c r="K32" s="13">
         <f>K31*100/'2019 - data'!K31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="10" t="e">
+        <v>30</v>
+      </c>
+      <c r="L32" s="10">
         <f>L31*100/'2019 - data'!L31</f>
-        <v>#DIV/0!</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4397,11 +4429,11 @@
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f>SUM(A35:L35)</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B34" s="15">
         <f>AVERAGEIF(A36:L36,"&gt;0")</f>
-        <v>27.132066276803119</v>
+        <v>25.722210588363037</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -4445,8 +4477,12 @@
       <c r="J35" s="3">
         <v>13</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="3">
+        <v>9</v>
+      </c>
+      <c r="L35" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="e">
@@ -4489,13 +4525,13 @@
         <f>J35*100/'2019 - data'!J35</f>
         <v>9.0277777777777786</v>
       </c>
-      <c r="K36" s="13" t="e">
+      <c r="K36" s="13">
         <f>K35*100/'2019 - data'!K35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="10" t="e">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="L36" s="10">
         <f>L35*100/'2019 - data'!L35</f>
-        <v>#DIV/0!</v>
+        <v>24.137931034482758</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4517,11 +4553,11 @@
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f>SUM(A39:L39)</f>
-        <v>9920</v>
+        <v>13052</v>
       </c>
       <c r="B38" s="15">
         <f>AVERAGEIF(A40:L40,"&gt;0")</f>
-        <v>14.975077173046543</v>
+        <v>14.89818997630139</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4577,11 +4613,11 @@
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4625,13 +4661,13 @@
         <f>J39*100/'2019 - data'!J39</f>
         <v>12.985691573926868</v>
       </c>
-      <c r="K40" s="13" t="e">
+      <c r="K40" s="13">
         <f>K39*100/'2019 - data'!K39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="10" t="e">
+        <v>15.685454355327826</v>
+      </c>
+      <c r="L40" s="10">
         <f>L39*100/'2019 - data'!L39</f>
-        <v>#DIV/0!</v>
+        <v>13.342053629823415</v>
       </c>
     </row>
   </sheetData>
@@ -4661,7 +4697,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:L5"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4689,15 +4725,15 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>30534</v>
+        <v>39532</v>
       </c>
       <c r="B2" s="11">
         <f>100-'2019 - Multimedia'!B2</f>
-        <v>82.766015117919352</v>
+        <v>82.94475060962003</v>
       </c>
       <c r="C2" s="3">
         <f>TRUNC(A2/A4)</f>
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4740,13 +4776,16 @@
       <c r="J3" s="3">
         <v>5691</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
+      <c r="K3" s="3">
+        <v>4135</v>
+      </c>
+      <c r="L3" s="4">
+        <v>4863</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <f>_xlfn.DAYS("1/11/2019","1/1/2019")</f>
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B4" s="7">
         <v>369</v>
@@ -4783,15 +4822,15 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>SUM(A7:L7)</f>
-        <v>805</v>
+        <v>858</v>
       </c>
       <c r="B6" s="11">
         <f>100-'2019 - Multimedia'!B6</f>
-        <v>97.777186463686263</v>
+        <v>95.975938214688057</v>
       </c>
       <c r="C6" s="3">
         <f>TRUNC(A6/A8)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -4834,12 +4873,17 @@
       <c r="J7" s="3">
         <v>33</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="3">
+        <v>33</v>
+      </c>
+      <c r="L7" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>243</v>
+        <f>A4</f>
+        <v>365</v>
       </c>
       <c r="B8" s="7">
         <v>369</v>
@@ -4876,15 +4920,15 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>10140</v>
+        <v>11989</v>
       </c>
       <c r="B10" s="11">
         <f>100-'2019 - Multimedia'!B10</f>
-        <v>86.604723158653627</v>
+        <v>86.930564807595658</v>
       </c>
       <c r="C10" s="3">
         <f>TRUNC(A10/A12)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4927,13 +4971,17 @@
       <c r="J11" s="3">
         <v>1200</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="3">
+        <v>884</v>
+      </c>
+      <c r="L11" s="4">
+        <v>965</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>A4</f>
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B12" s="7">
         <v>369</v>
@@ -4970,15 +5018,15 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>8493</v>
+        <v>10975</v>
       </c>
       <c r="B14" s="11">
         <f>100-'2019 - Multimedia'!B14</f>
-        <v>85.664002932048916</v>
+        <v>85.66501184415219</v>
       </c>
       <c r="C14" s="3">
         <f>TRUNC(A14/A16)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -5021,13 +5069,17 @@
       <c r="J15" s="3">
         <v>1408</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="3">
+        <v>1209</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1273</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f>A4</f>
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B16" s="7">
         <v>369</v>
@@ -5064,15 +5116,15 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>11886</v>
+        <v>17328</v>
       </c>
       <c r="B18" s="11">
         <f>100-'2019 - Multimedia'!B18</f>
-        <v>87.608241776105999</v>
+        <v>88.160250186142889</v>
       </c>
       <c r="C18" s="3">
         <f>TRUNC(A18/A20)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -5115,13 +5167,17 @@
       <c r="J19" s="3">
         <v>4280</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
+      <c r="K19" s="3">
+        <v>1966</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3476</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f>A4</f>
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B20" s="7">
         <v>369</v>
@@ -5158,15 +5214,15 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>SUM(A23:L23)</f>
-        <v>5076</v>
+        <v>7852</v>
       </c>
       <c r="B22" s="11">
         <f>100-'2019 - Multimedia'!B22</f>
-        <v>81.073327953681016</v>
+        <v>80.940422215238058</v>
       </c>
       <c r="C22" s="3">
         <f>TRUNC(A22/A24)</f>
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -5209,12 +5265,16 @@
       <c r="J23" s="3">
         <v>2738</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
+      <c r="K23" s="3">
+        <v>1224</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1552</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B24" s="7">
         <v>369</v>
@@ -5251,15 +5311,15 @@
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>SUM(A27:L27)</f>
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="B26" s="11">
         <f>100-'2019 - Multimedia'!B26</f>
-        <v>79.953866910388655</v>
+        <v>77.766488242288077</v>
       </c>
       <c r="C26" s="3">
         <f>TRUNC(A26/A28)</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -5302,13 +5362,17 @@
       <c r="J27" s="3">
         <v>111</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
+      <c r="K27" s="3">
+        <v>53</v>
+      </c>
+      <c r="L27" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f>A24</f>
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B28" s="7">
         <v>369</v>
@@ -5345,15 +5409,15 @@
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>SUM(A31:L31)</f>
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="B30" s="11">
         <f>100-'2019 - Multimedia'!B30</f>
-        <v>86.955128205128204</v>
+        <v>83.67307692307692</v>
       </c>
       <c r="C30" s="3">
         <f>TRUNC(A30/A32)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5396,13 +5460,17 @@
       <c r="J31" s="3">
         <v>120</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
+      <c r="K31" s="3">
+        <v>20</v>
+      </c>
+      <c r="L31" s="4">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f>A24</f>
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B32" s="7">
         <v>369</v>
@@ -5439,15 +5507,15 @@
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>SUM(A35:L35)</f>
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="B34" s="11">
         <f>100-'2019 - Multimedia'!B34</f>
-        <v>72.867933723196884</v>
+        <v>74.277789411636959</v>
       </c>
       <c r="C34" s="3">
         <f>TRUNC(A34/A36)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -5490,13 +5558,17 @@
       <c r="J35" s="3">
         <v>144</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4"/>
+      <c r="K35" s="3">
+        <v>39</v>
+      </c>
+      <c r="L35" s="4">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f>A24</f>
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B36" s="7">
         <v>369</v>
@@ -5533,15 +5605,15 @@
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>SUM(A39:L39)</f>
-        <v>67899</v>
+        <v>89694</v>
       </c>
       <c r="B38" s="11">
         <f>100-'2019 - Multimedia'!B38</f>
-        <v>85.024922826953457</v>
+        <v>85.101810023698604</v>
       </c>
       <c r="C38" s="3">
         <f>TRUNC(A38/A40)</f>
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -5596,17 +5668,17 @@
       </c>
       <c r="K39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9563</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12232</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f>A4</f>
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="B40" s="7">
         <v>369</v>

--- a/Main/Data/data.xlsx
+++ b/Main/Data/data.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2018 - Multimedia" sheetId="2" r:id="rId1"/>
     <sheet name="2018 - data" sheetId="1" r:id="rId2"/>
     <sheet name="2019 - Multimedia" sheetId="3" r:id="rId3"/>
     <sheet name="2019 - data" sheetId="4" r:id="rId4"/>
+    <sheet name="2020 - Multimedia" sheetId="6" r:id="rId5"/>
+    <sheet name="2020 - data" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1412,8 +1414,962 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Multimedia Mensual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Multimedia Mensual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Multimedia Mensual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Multimedia Total</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Porcentaje de Mutimedia Total</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Mensuales
+(En Orden Ascendente, Enero-Diciembre)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Días Activo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Spams &amp; Debates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ratio de Fluidez</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Totales</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Porcentaje de Texto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mensajes Diarios en Promedio</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>TEJÓN</t>
   </si>
@@ -1705,6 +2661,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2C5E2C"/>
       <color rgb="FFFFB19F"/>
     </mruColors>
   </colors>
@@ -4672,16 +5629,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A21:L21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4696,7 +5653,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -5698,15 +6655,2326 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A21:L21"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A17:L17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF2C5E2C"/>
+  </sheetPr>
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>SUM(A3:L3)</f>
+        <v>2355</v>
+      </c>
+      <c r="B2" s="11">
+        <f>AVERAGEIF(A4:L4,"&gt;=0")</f>
+        <v>21.522116404993284</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>882</v>
+      </c>
+      <c r="G3" s="1">
+        <v>382</v>
+      </c>
+      <c r="H3" s="1">
+        <v>386</v>
+      </c>
+      <c r="I3" s="1">
+        <v>397</v>
+      </c>
+      <c r="J3" s="1">
+        <v>308</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="e">
+        <f>A3*100/'2020 - data'!A3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B4" s="9" t="e">
+        <f>B3*100/'2020 - data'!B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="9" t="e">
+        <f>C3*100/'2020 - data'!C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="9" t="e">
+        <f>D3*100/'2020 - data'!D3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="9" t="e">
+        <f>E3*100/'2020 - data'!E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="9">
+        <f>F3*100/'2020 - data'!F3</f>
+        <v>22.397155916708989</v>
+      </c>
+      <c r="G4" s="9">
+        <f>G3*100/'2020 - data'!G3</f>
+        <v>23.919849718221666</v>
+      </c>
+      <c r="H4" s="9">
+        <f>H3*100/'2020 - data'!H3</f>
+        <v>21.734234234234233</v>
+      </c>
+      <c r="I4" s="9">
+        <f>I3*100/'2020 - data'!I3</f>
+        <v>18.020880617339991</v>
+      </c>
+      <c r="J4" s="9">
+        <f>J3*100/'2020 - data'!J3</f>
+        <v>21.53846153846154</v>
+      </c>
+      <c r="K4" s="9" t="e">
+        <f>K3*100/'2020 - data'!K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="9" t="e">
+        <f>L3*100/'2020 - data'!L3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f>SUM(A7:L7)</f>
+        <v>25</v>
+      </c>
+      <c r="B6" s="15">
+        <f>AVERAGEIF(A8:L8,"&gt;=0")</f>
+        <v>3.8589362170880692</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="e">
+        <f>A7*100/'2020 - data'!A7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B8" s="13" t="e">
+        <f>B7*100/'2020 - data'!B7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="13" t="e">
+        <f>C7*100/'2020 - data'!C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="13" t="e">
+        <f>D7*100/'2020 - data'!D7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="13" t="e">
+        <f>E7*100/'2020 - data'!E7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="13">
+        <f>F7*100/'2020 - data'!F7</f>
+        <v>1.897018970189702</v>
+      </c>
+      <c r="G8" s="13">
+        <f>G7*100/'2020 - data'!G7</f>
+        <v>4.4776119402985071</v>
+      </c>
+      <c r="H8" s="13">
+        <f>H7*100/'2020 - data'!H7</f>
+        <v>8.6419753086419746</v>
+      </c>
+      <c r="I8" s="13">
+        <f>I7*100/'2020 - data'!I7</f>
+        <v>1.6042780748663101</v>
+      </c>
+      <c r="J8" s="13">
+        <f>J7*100/'2020 - data'!J7</f>
+        <v>2.6737967914438503</v>
+      </c>
+      <c r="K8" s="13" t="e">
+        <f>K7*100/'2020 - data'!K7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" s="13" t="e">
+        <f>L7*100/'2020 - data'!L7</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>SUM(A11:L11)</f>
+        <v>876</v>
+      </c>
+      <c r="B10" s="11">
+        <f>AVERAGEIF(A12:L12,"&gt;=0")</f>
+        <v>23.88948593797377</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>309</v>
+      </c>
+      <c r="G11" s="3">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3">
+        <v>156</v>
+      </c>
+      <c r="I11" s="3">
+        <v>212</v>
+      </c>
+      <c r="J11" s="3">
+        <v>165</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="e">
+        <f>A11*100/'2020 - data'!A11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B12" s="9" t="e">
+        <f>B11*100/'2020 - data'!B11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12" s="9" t="e">
+        <f>C11*100/'2020 - data'!C11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="9" t="e">
+        <f>D11*100/'2020 - data'!D11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E12" s="9" t="e">
+        <f>E11*100/'2020 - data'!E11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="9">
+        <f>F11*100/'2020 - data'!F11</f>
+        <v>34.030837004405285</v>
+      </c>
+      <c r="G12" s="9">
+        <f>G11*100/'2020 - data'!G11</f>
+        <v>17.171717171717173</v>
+      </c>
+      <c r="H12" s="9">
+        <f>H11*100/'2020 - data'!H11</f>
+        <v>23.889739663093415</v>
+      </c>
+      <c r="I12" s="9">
+        <f>I11*100/'2020 - data'!I11</f>
+        <v>18.370883882149048</v>
+      </c>
+      <c r="J12" s="9">
+        <f>J11*100/'2020 - data'!J11</f>
+        <v>25.984251968503937</v>
+      </c>
+      <c r="K12" s="9" t="e">
+        <f>K11*100/'2020 - data'!K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="9" t="e">
+        <f>L11*100/'2020 - data'!L11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>SUM(A15:L15)</f>
+        <v>897</v>
+      </c>
+      <c r="B14" s="11">
+        <f>AVERAGEIF(A16:L16,"&gt;=0")</f>
+        <v>20.052237934641596</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>262</v>
+      </c>
+      <c r="G15" s="3">
+        <v>145</v>
+      </c>
+      <c r="H15" s="3">
+        <v>103</v>
+      </c>
+      <c r="I15" s="3">
+        <v>186</v>
+      </c>
+      <c r="J15" s="3">
+        <v>201</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="e">
+        <f>A15*100/'2020 - data'!A15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B16" s="9" t="e">
+        <f>B15*100/'2020 - data'!B15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" s="9" t="e">
+        <f>C15*100/'2020 - data'!C15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="9" t="e">
+        <f>D15*100/'2020 - data'!D15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="9" t="e">
+        <f>E15*100/'2020 - data'!E15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="9">
+        <f>F15*100/'2020 - data'!F15</f>
+        <v>22.723330442324372</v>
+      </c>
+      <c r="G16" s="9">
+        <f>G15*100/'2020 - data'!G15</f>
+        <v>22.445820433436534</v>
+      </c>
+      <c r="H16" s="9">
+        <f>H15*100/'2020 - data'!H15</f>
+        <v>17.281879194630871</v>
+      </c>
+      <c r="I16" s="9">
+        <f>I15*100/'2020 - data'!I15</f>
+        <v>16.103896103896105</v>
+      </c>
+      <c r="J16" s="9">
+        <f>J15*100/'2020 - data'!J15</f>
+        <v>21.706263498920087</v>
+      </c>
+      <c r="K16" s="9" t="e">
+        <f>K15*100/'2020 - data'!K15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="9" t="e">
+        <f>L15*100/'2020 - data'!L15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>SUM(A19:L19)</f>
+        <v>871</v>
+      </c>
+      <c r="B18" s="11">
+        <f>AVERAGEIF(A20:L20,"&gt;=0")</f>
+        <v>13.6202824276664</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <v>554</v>
+      </c>
+      <c r="G19" s="14">
+        <v>106</v>
+      </c>
+      <c r="H19" s="14">
+        <v>85</v>
+      </c>
+      <c r="I19" s="14">
+        <v>90</v>
+      </c>
+      <c r="J19" s="14">
+        <v>36</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="e">
+        <f>A19*100/'2020 - data'!A19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B20" s="9" t="e">
+        <f>B19*100/'2020 - data'!B19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="9" t="e">
+        <f>C19*100/'2020 - data'!C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="9" t="e">
+        <f>D19*100/'2020 - data'!D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="9" t="e">
+        <f>E19*100/'2020 - data'!E19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="9">
+        <f>F19*100/'2020 - data'!F19</f>
+        <v>21.431334622823986</v>
+      </c>
+      <c r="G20" s="9">
+        <f>G19*100/'2020 - data'!G19</f>
+        <v>17.696160267111853</v>
+      </c>
+      <c r="H20" s="9">
+        <f>H19*100/'2020 - data'!H19</f>
+        <v>13.687600644122384</v>
+      </c>
+      <c r="I20" s="9">
+        <f>I19*100/'2020 - data'!I19</f>
+        <v>9.3555093555093549</v>
+      </c>
+      <c r="J20" s="9">
+        <f>J19*100/'2020 - data'!J19</f>
+        <v>5.930807248764415</v>
+      </c>
+      <c r="K20" s="9" t="e">
+        <f>K19*100/'2020 - data'!K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="9" t="e">
+        <f>L19*100/'2020 - data'!L19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f>SUM(A23:L23)</f>
+        <v>650</v>
+      </c>
+      <c r="B22" s="15">
+        <f>AVERAGEIF(A24:L24,"&gt;0")</f>
+        <v>15.711119139066316</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>164</v>
+      </c>
+      <c r="G23" s="3">
+        <v>89</v>
+      </c>
+      <c r="H23" s="3">
+        <v>132</v>
+      </c>
+      <c r="I23" s="3">
+        <v>129</v>
+      </c>
+      <c r="J23" s="3">
+        <v>136</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="e">
+        <f>A23*100/'2020 - data'!A23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B24" s="13" t="e">
+        <f>B23*100/'2020 - data'!B23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="13" t="e">
+        <f>C23*100/'2020 - data'!C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="13" t="e">
+        <f>D23*100/'2020 - data'!D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="13" t="e">
+        <f>E23*100/'2020 - data'!E23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="13">
+        <f>F23*100/'2020 - data'!F23</f>
+        <v>14.0893470790378</v>
+      </c>
+      <c r="G24" s="13">
+        <f>G23*100/'2020 - data'!G23</f>
+        <v>16.888045540796963</v>
+      </c>
+      <c r="H24" s="13">
+        <f>H23*100/'2020 - data'!H23</f>
+        <v>17.345597897503286</v>
+      </c>
+      <c r="I24" s="13">
+        <f>I23*100/'2020 - data'!I23</f>
+        <v>12.524271844660195</v>
+      </c>
+      <c r="J24" s="13">
+        <f>J23*100/'2020 - data'!J23</f>
+        <v>17.708333333333332</v>
+      </c>
+      <c r="K24" s="13" t="e">
+        <f>K23*100/'2020 - data'!K23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="13" t="e">
+        <f>L23*100/'2020 - data'!L23</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f>SUM(A27:L27)</f>
+        <v>41</v>
+      </c>
+      <c r="B26" s="15">
+        <f>AVERAGEIF(A28:L28,"&gt;0")</f>
+        <v>16.38454583391292</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3">
+        <v>13</v>
+      </c>
+      <c r="J27" s="3">
+        <v>11</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="e">
+        <f>A27*100/'2020 - data'!A27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B28" s="13" t="e">
+        <f>B27*100/'2020 - data'!B27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28" s="13" t="e">
+        <f>C27*100/'2020 - data'!C27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="13" t="e">
+        <f>D27*100/'2020 - data'!D27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="13" t="e">
+        <f>E27*100/'2020 - data'!E27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="13">
+        <f>F27*100/'2020 - data'!F27</f>
+        <v>14.285714285714286</v>
+      </c>
+      <c r="G28" s="13">
+        <f>G27*100/'2020 - data'!G27</f>
+        <v>11.538461538461538</v>
+      </c>
+      <c r="H28" s="13">
+        <f>H27*100/'2020 - data'!H27</f>
+        <v>20</v>
+      </c>
+      <c r="I28" s="13">
+        <f>I27*100/'2020 - data'!I27</f>
+        <v>16.455696202531644</v>
+      </c>
+      <c r="J28" s="13">
+        <f>J27*100/'2020 - data'!J27</f>
+        <v>19.642857142857142</v>
+      </c>
+      <c r="K28" s="13" t="e">
+        <f>K27*100/'2020 - data'!K27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="13" t="e">
+        <f>L27*100/'2020 - data'!L27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f>SUM(A31:L31)</f>
+        <v>7</v>
+      </c>
+      <c r="B30" s="15">
+        <f>AVERAGEIF(A32:L32,"&gt;0")</f>
+        <v>16.918388977212508</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="e">
+        <f>A31*100/'2020 - data'!A31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B32" s="13" t="e">
+        <f>B31*100/'2020 - data'!B31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32" s="13" t="e">
+        <f>C31*100/'2020 - data'!C31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="13" t="e">
+        <f>D31*100/'2020 - data'!D31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E32" s="13" t="e">
+        <f>E31*100/'2020 - data'!E31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="13">
+        <f>F31*100/'2020 - data'!F31</f>
+        <v>25</v>
+      </c>
+      <c r="G32" s="13" t="e">
+        <f>G31*100/'2020 - data'!G31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="13">
+        <f>H31*100/'2020 - data'!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <f>I31*100/'2020 - data'!I31</f>
+        <v>8.1081081081081088</v>
+      </c>
+      <c r="J32" s="13">
+        <f>J31*100/'2020 - data'!J31</f>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="K32" s="13" t="e">
+        <f>K31*100/'2020 - data'!K31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="13" t="e">
+        <f>L31*100/'2020 - data'!L31</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f>SUM(A35:L35)</f>
+        <v>67</v>
+      </c>
+      <c r="B34" s="15">
+        <f>AVERAGEIF(A36:L36,"&gt;0")</f>
+        <v>11.247299311574158</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>18</v>
+      </c>
+      <c r="G35" s="3">
+        <v>9</v>
+      </c>
+      <c r="H35" s="3">
+        <v>14</v>
+      </c>
+      <c r="I35" s="3">
+        <v>21</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="e">
+        <f>A35*100/'2020 - data'!A35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B36" s="13" t="e">
+        <f>B35*100/'2020 - data'!B35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36" s="13" t="e">
+        <f>C35*100/'2020 - data'!C35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="13" t="e">
+        <f>D35*100/'2020 - data'!D35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="13" t="e">
+        <f>E35*100/'2020 - data'!E35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="13">
+        <f>F35*100/'2020 - data'!F35</f>
+        <v>9.6256684491978604</v>
+      </c>
+      <c r="G36" s="13">
+        <f>G35*100/'2020 - data'!G35</f>
+        <v>10.344827586206897</v>
+      </c>
+      <c r="H36" s="13">
+        <f>H35*100/'2020 - data'!H35</f>
+        <v>21.212121212121211</v>
+      </c>
+      <c r="I36" s="13">
+        <f>I35*100/'2020 - data'!I35</f>
+        <v>7.2413793103448274</v>
+      </c>
+      <c r="J36" s="13">
+        <f>J35*100/'2020 - data'!J35</f>
+        <v>7.8125</v>
+      </c>
+      <c r="K36" s="13" t="e">
+        <f>K35*100/'2020 - data'!K35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="13" t="e">
+        <f>L35*100/'2020 - data'!L35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f>SUM(A39:L39)</f>
+        <v>5789</v>
+      </c>
+      <c r="B38" s="15">
+        <f>AVERAGEIF(A40:L40,"&gt;0")</f>
+        <v>18.928329478373776</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f>SUM(A3,A7,A11,A15,A19,A23,A27,A31,A35)</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" ref="B39:L39" si="0">SUM(B3,B7,B11,B15,B19,B23,B27,B31,B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>2199</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>771</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>895</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>1054</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="e">
+        <f>A39*100/'2020 - data'!A39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B40" s="13" t="e">
+        <f>B39*100/'2020 - data'!B39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" s="13" t="e">
+        <f>C39*100/'2020 - data'!C39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="13" t="e">
+        <f>D39*100/'2020 - data'!D39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="13" t="e">
+        <f>E39*100/'2020 - data'!E39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="13">
+        <f>F39*100/'2020 - data'!F39</f>
+        <v>21.304010850610346</v>
+      </c>
+      <c r="G40" s="13">
+        <f>G39*100/'2020 - data'!G39</f>
+        <v>20.576461168935147</v>
+      </c>
+      <c r="H40" s="13">
+        <f>H39*100/'2020 - data'!H39</f>
+        <v>19.359723123512872</v>
+      </c>
+      <c r="I40" s="13">
+        <f>I39*100/'2020 - data'!I39</f>
+        <v>14.851345639002396</v>
+      </c>
+      <c r="J40" s="13">
+        <f>J39*100/'2020 - data'!J39</f>
+        <v>18.550106609808104</v>
+      </c>
+      <c r="K40" s="13" t="e">
+        <f>K39*100/'2020 - data'!K39</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="13" t="e">
+        <f>L39*100/'2020 - data'!L39</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A21:L21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF2C5E2C"/>
+  </sheetPr>
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>SUM(A3:L3)</f>
+        <v>10944</v>
+      </c>
+      <c r="B2" s="11">
+        <f>100-'2020 - Multimedia'!B2</f>
+        <v>78.477883595006716</v>
+      </c>
+      <c r="C2" s="3">
+        <f>TRUNC(A2/A4)</f>
+        <v>71</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3938</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1597</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1776</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2203</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1430</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>153</v>
+      </c>
+      <c r="B4" s="7">
+        <v>369</v>
+      </c>
+      <c r="C4" s="7">
+        <v>369</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>SUM(A7:L7)</f>
+        <v>891</v>
+      </c>
+      <c r="B6" s="11">
+        <f>100-'2020 - Multimedia'!B6</f>
+        <v>96.141063782911928</v>
+      </c>
+      <c r="C6" s="3">
+        <f>TRUNC(A6/A8)</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>369</v>
+      </c>
+      <c r="G7" s="3">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3">
+        <v>81</v>
+      </c>
+      <c r="I7" s="3">
+        <v>187</v>
+      </c>
+      <c r="J7" s="3">
+        <v>187</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B8" s="7">
+        <v>369</v>
+      </c>
+      <c r="C8" s="7">
+        <v>369</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f>SUM(A11:L11)</f>
+        <v>3548</v>
+      </c>
+      <c r="B10" s="11">
+        <f>100-'2020 - Multimedia'!B10</f>
+        <v>76.110514062026226</v>
+      </c>
+      <c r="C10" s="3">
+        <f>TRUNC(A10/A12)</f>
+        <v>23</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>908</v>
+      </c>
+      <c r="G11" s="3">
+        <v>198</v>
+      </c>
+      <c r="H11" s="3">
+        <v>653</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1154</v>
+      </c>
+      <c r="J11" s="3">
+        <v>635</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B12" s="7">
+        <v>369</v>
+      </c>
+      <c r="C12" s="7">
+        <v>369</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>SUM(A15:L15)</f>
+        <v>4476</v>
+      </c>
+      <c r="B14" s="11">
+        <f>100-'2020 - Multimedia'!B14</f>
+        <v>79.947762065358404</v>
+      </c>
+      <c r="C14" s="3">
+        <f>TRUNC(A14/A16)</f>
+        <v>29</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1153</v>
+      </c>
+      <c r="G15" s="3">
+        <v>646</v>
+      </c>
+      <c r="H15" s="3">
+        <v>596</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1155</v>
+      </c>
+      <c r="J15" s="3">
+        <v>926</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B16" s="7">
+        <v>369</v>
+      </c>
+      <c r="C16" s="7">
+        <v>369</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>SUM(A19:L19)</f>
+        <v>5374</v>
+      </c>
+      <c r="B18" s="11">
+        <f>100-'2020 - Multimedia'!B18</f>
+        <v>86.379717572333604</v>
+      </c>
+      <c r="C18" s="3">
+        <f>TRUNC(A18/A20)</f>
+        <v>35</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2585</v>
+      </c>
+      <c r="G19" s="3">
+        <v>599</v>
+      </c>
+      <c r="H19" s="3">
+        <v>621</v>
+      </c>
+      <c r="I19" s="3">
+        <v>962</v>
+      </c>
+      <c r="J19" s="3">
+        <v>607</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B20" s="7">
+        <v>369</v>
+      </c>
+      <c r="C20" s="7">
+        <v>369</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>SUM(A23:L23)</f>
+        <v>4250</v>
+      </c>
+      <c r="B22" s="11">
+        <f>100-'2020 - Multimedia'!B22</f>
+        <v>84.288880860933688</v>
+      </c>
+      <c r="C22" s="3">
+        <f>TRUNC(A22/A24)</f>
+        <v>27</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1164</v>
+      </c>
+      <c r="G23" s="3">
+        <v>527</v>
+      </c>
+      <c r="H23" s="3">
+        <v>761</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1030</v>
+      </c>
+      <c r="J23" s="3">
+        <v>768</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B24" s="7">
+        <v>369</v>
+      </c>
+      <c r="C24" s="7">
+        <v>369</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f>SUM(A27:L27)</f>
+        <v>235</v>
+      </c>
+      <c r="B26" s="11">
+        <f>100-'2020 - Multimedia'!B26</f>
+        <v>83.615454166087076</v>
+      </c>
+      <c r="C26" s="3">
+        <f>TRUNC(A26/A28)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3">
+        <v>26</v>
+      </c>
+      <c r="H27" s="3">
+        <v>60</v>
+      </c>
+      <c r="I27" s="3">
+        <v>79</v>
+      </c>
+      <c r="J27" s="3">
+        <v>56</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B28" s="7">
+        <v>369</v>
+      </c>
+      <c r="C28" s="7">
+        <v>369</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f>SUM(A31:L31)</f>
+        <v>67</v>
+      </c>
+      <c r="B30" s="11">
+        <f>100-'2020 - Multimedia'!B30</f>
+        <v>83.081611022787484</v>
+      </c>
+      <c r="C30" s="3">
+        <f>TRUNC(A30/A32)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>4</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>9</v>
+      </c>
+      <c r="I31" s="3">
+        <v>37</v>
+      </c>
+      <c r="J31" s="3">
+        <v>17</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B32" s="7">
+        <v>369</v>
+      </c>
+      <c r="C32" s="7">
+        <v>369</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f>SUM(A35:L35)</f>
+        <v>694</v>
+      </c>
+      <c r="B34" s="11">
+        <f>100-'2020 - Multimedia'!B34</f>
+        <v>88.752700688425847</v>
+      </c>
+      <c r="C34" s="3">
+        <f>TRUNC(A34/A36)</f>
+        <v>4</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>187</v>
+      </c>
+      <c r="G35" s="3">
+        <v>87</v>
+      </c>
+      <c r="H35" s="3">
+        <v>66</v>
+      </c>
+      <c r="I35" s="3">
+        <v>290</v>
+      </c>
+      <c r="J35" s="3">
+        <v>64</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B36" s="7">
+        <v>369</v>
+      </c>
+      <c r="C36" s="7">
+        <v>369</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f>SUM(A39:L39)</f>
+        <v>30479</v>
+      </c>
+      <c r="B38" s="11">
+        <f>100-'2020 - Multimedia'!B38</f>
+        <v>81.071670521626231</v>
+      </c>
+      <c r="C38" s="3">
+        <f>TRUNC(A38/A40)</f>
+        <v>199</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f>SUM(A3,A7,A11,A15,A19,A23,A27,A31,A35)</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" ref="B39:L39" si="0">SUM(B3,B7,B11,B15,B19,B23,B27,B31,B35)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="0"/>
+        <v>10322</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="0"/>
+        <v>3747</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>4623</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>7097</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="0"/>
+        <v>4690</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <f>A4</f>
+        <v>153</v>
+      </c>
+      <c r="B40" s="7">
+        <v>369</v>
+      </c>
+      <c r="C40" s="7">
+        <v>369</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Main/Data/data.xlsx
+++ b/Main/Data/data.xlsx
@@ -5629,16 +5629,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="A37:L37"/>
     <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6655,16 +6655,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="A33:L33"/>
     <mergeCell ref="A37:L37"/>
     <mergeCell ref="A21:L21"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6679,8 +6679,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6704,11 +6704,11 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>2355</v>
+        <v>6683</v>
       </c>
       <c r="B2" s="11">
         <f>AVERAGEIF(A4:L4,"&gt;=0")</f>
-        <v>21.522116404993284</v>
+        <v>21.885276344373217</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6723,19 +6723,19 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>991</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="C3" s="17">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="F3" s="1">
         <v>882</v>
@@ -6760,25 +6760,25 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="e">
+      <c r="A4" s="9">
         <f>A3*100/'2020 - data'!A3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B4" s="9" t="e">
+        <v>22.945126186617273</v>
+      </c>
+      <c r="B4" s="9">
         <f>B3*100/'2020 - data'!B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="9" t="e">
+        <v>17.711771177117711</v>
+      </c>
+      <c r="C4" s="9">
         <f>C3*100/'2020 - data'!C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="9" t="e">
+        <v>26.986333101690988</v>
+      </c>
+      <c r="D4" s="9">
         <f>D3*100/'2020 - data'!D3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="9" t="e">
+        <v>21.761006289308177</v>
+      </c>
+      <c r="E4" s="9">
         <f>E3*100/'2020 - data'!E3</f>
-        <v>#DIV/0!</v>
+        <v>21.837944664031621</v>
       </c>
       <c r="F4" s="9">
         <f>F3*100/'2020 - data'!F3</f>
@@ -6828,11 +6828,11 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>SUM(A7:L7)</f>
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B6" s="15">
         <f>AVERAGEIF(A8:L8,"&gt;=0")</f>
-        <v>3.8589362170880692</v>
+        <v>3.7619080610495579</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -6847,19 +6847,19 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3">
         <v>7</v>
@@ -6884,25 +6884,25 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="e">
+      <c r="A8" s="13">
         <f>A7*100/'2020 - data'!A7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B8" s="13" t="e">
+        <v>6.0606060606060606</v>
+      </c>
+      <c r="B8" s="13">
         <f>B7*100/'2020 - data'!B7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="13" t="e">
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="C8" s="13">
         <f>C7*100/'2020 - data'!C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="13" t="e">
+        <v>4.716981132075472</v>
+      </c>
+      <c r="D8" s="13">
         <f>D7*100/'2020 - data'!D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="13" t="e">
+        <v>3.763440860215054</v>
+      </c>
+      <c r="E8" s="13">
         <f>E7*100/'2020 - data'!E7</f>
-        <v>#DIV/0!</v>
+        <v>2.0289855072463769</v>
       </c>
       <c r="F8" s="13">
         <f>F7*100/'2020 - data'!F7</f>
@@ -6952,11 +6952,11 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>876</v>
+        <v>1752</v>
       </c>
       <c r="B10" s="11">
         <f>AVERAGEIF(A12:L12,"&gt;=0")</f>
-        <v>23.88948593797377</v>
+        <v>20.563138615672997</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -6971,19 +6971,19 @@
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="C11" s="17">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="F11" s="3">
         <v>309</v>
@@ -7008,25 +7008,25 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="e">
+      <c r="A12" s="9">
         <f>A11*100/'2020 - data'!A11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B12" s="9" t="e">
+        <v>15.088013411567477</v>
+      </c>
+      <c r="B12" s="9">
         <f>B11*100/'2020 - data'!B11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="9" t="e">
+        <v>12.726211325160538</v>
+      </c>
+      <c r="C12" s="9">
         <f>C11*100/'2020 - data'!C11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="9" t="e">
+        <v>17.618384401114206</v>
+      </c>
+      <c r="D12" s="9">
         <f>D11*100/'2020 - data'!D11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
+        <v>14.754098360655737</v>
+      </c>
+      <c r="E12" s="9">
         <f>E11*100/'2020 - data'!E11</f>
-        <v>#DIV/0!</v>
+        <v>25.997248968363134</v>
       </c>
       <c r="F12" s="9">
         <f>F11*100/'2020 - data'!F11</f>
@@ -7076,11 +7076,11 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>897</v>
+        <v>2295</v>
       </c>
       <c r="B14" s="11">
         <f>AVERAGEIF(A16:L16,"&gt;=0")</f>
-        <v>20.052237934641596</v>
+        <v>19.703642556076623</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -7095,19 +7095,19 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="C15" s="17">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="F15" s="3">
         <v>262</v>
@@ -7132,25 +7132,25 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="e">
+      <c r="A16" s="9">
         <f>A15*100/'2020 - data'!A15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B16" s="9" t="e">
+        <v>20.383036935704514</v>
+      </c>
+      <c r="B16" s="9">
         <f>B15*100/'2020 - data'!B15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16" s="9" t="e">
+        <v>17.977528089887642</v>
+      </c>
+      <c r="C16" s="9">
         <f>C15*100/'2020 - data'!C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D16" s="9" t="e">
+        <v>19.190814652815746</v>
+      </c>
+      <c r="D16" s="9">
         <f>D15*100/'2020 - data'!D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="9" t="e">
+        <v>19.779411764705884</v>
+      </c>
+      <c r="E16" s="9">
         <f>E15*100/'2020 - data'!E15</f>
-        <v>#DIV/0!</v>
+        <v>19.444444444444443</v>
       </c>
       <c r="F16" s="9">
         <f>F15*100/'2020 - data'!F15</f>
@@ -7200,11 +7200,11 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>871</v>
+        <v>3086</v>
       </c>
       <c r="B18" s="11">
         <f>AVERAGEIF(A20:L20,"&gt;=0")</f>
-        <v>13.6202824276664</v>
+        <v>14.877506039897654</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -7219,19 +7219,19 @@
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="C19" s="17">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="F19" s="14">
         <v>554</v>
@@ -7256,25 +7256,25 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="e">
+      <c r="A20" s="9">
         <f>A19*100/'2020 - data'!A19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B20" s="9" t="e">
+        <v>15.294535131298794</v>
+      </c>
+      <c r="B20" s="9">
         <f>B19*100/'2020 - data'!B19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="9" t="e">
+        <v>10.735468564650059</v>
+      </c>
+      <c r="C20" s="9">
         <f>C19*100/'2020 - data'!C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="9" t="e">
+        <v>19.863532979529946</v>
+      </c>
+      <c r="D20" s="9">
         <f>D19*100/'2020 - data'!D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="9" t="e">
+        <v>15.909090909090908</v>
+      </c>
+      <c r="E20" s="9">
         <f>E19*100/'2020 - data'!E19</f>
-        <v>#DIV/0!</v>
+        <v>18.871020676074828</v>
       </c>
       <c r="F20" s="9">
         <f>F19*100/'2020 - data'!F19</f>
@@ -7324,11 +7324,11 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f>SUM(A23:L23)</f>
-        <v>650</v>
+        <v>1676</v>
       </c>
       <c r="B22" s="15">
         <f>AVERAGEIF(A24:L24,"&gt;0")</f>
-        <v>15.711119139066316</v>
+        <v>15.998626305267607</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -7343,16 +7343,16 @@
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="C23" s="17">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -7380,21 +7380,21 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="e">
+      <c r="A24" s="13">
         <f>A23*100/'2020 - data'!A23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B24" s="13" t="e">
+        <v>17.583408476104598</v>
+      </c>
+      <c r="B24" s="13">
         <f>B23*100/'2020 - data'!B23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C24" s="13" t="e">
+        <v>17.908653846153847</v>
+      </c>
+      <c r="C24" s="13">
         <f>C23*100/'2020 - data'!C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="13" t="e">
+        <v>17.459239130434781</v>
+      </c>
+      <c r="D24" s="13">
         <f>D23*100/'2020 - data'!D23</f>
-        <v>#DIV/0!</v>
+        <v>12.480739599383668</v>
       </c>
       <c r="E24" s="13" t="e">
         <f>E23*100/'2020 - data'!E23</f>
@@ -7448,11 +7448,11 @@
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f>SUM(A27:L27)</f>
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="B26" s="15">
         <f>AVERAGEIF(A28:L28,"&gt;0")</f>
-        <v>16.38454583391292</v>
+        <v>21.51867412943362</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7467,16 +7467,16 @@
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C27" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -7504,21 +7504,21 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="e">
+      <c r="A28" s="13">
         <f>A27*100/'2020 - data'!A27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B28" s="13" t="e">
+        <v>20.192307692307693</v>
+      </c>
+      <c r="B28" s="13">
         <f>B27*100/'2020 - data'!B27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C28" s="13" t="e">
+        <v>13.636363636363637</v>
+      </c>
+      <c r="C28" s="13">
         <f>C27*100/'2020 - data'!C27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D28" s="13" t="e">
+        <v>31.25</v>
+      </c>
+      <c r="D28" s="13">
         <f>D27*100/'2020 - data'!D27</f>
-        <v>#DIV/0!</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="E28" s="13" t="e">
         <f>E27*100/'2020 - data'!E27</f>
@@ -7572,11 +7572,11 @@
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f>SUM(A31:L31)</f>
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B30" s="15">
         <f>AVERAGEIF(A32:L32,"&gt;0")</f>
-        <v>16.918388977212508</v>
+        <v>15.593133240192063</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -7591,19 +7591,19 @@
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C31" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -7628,25 +7628,25 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="e">
+      <c r="A32" s="13">
         <f>A31*100/'2020 - data'!A31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B32" s="13" t="e">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="B32" s="13">
         <f>B31*100/'2020 - data'!B31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="13" t="e">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="C32" s="13">
         <f>C31*100/'2020 - data'!C31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="13" t="e">
+        <v>9.615384615384615</v>
+      </c>
+      <c r="D32" s="13">
         <f>D31*100/'2020 - data'!D31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="13" t="e">
+        <v>21.212121212121211</v>
+      </c>
+      <c r="E32" s="13">
         <f>E31*100/'2020 - data'!E31</f>
-        <v>#DIV/0!</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="F32" s="13">
         <f>F31*100/'2020 - data'!F31</f>
@@ -7696,11 +7696,11 @@
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f>SUM(A35:L35)</f>
-        <v>67</v>
+        <v>246</v>
       </c>
       <c r="B34" s="15">
         <f>AVERAGEIF(A36:L36,"&gt;0")</f>
-        <v>11.247299311574158</v>
+        <v>13.840779170514125</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -7715,19 +7715,19 @@
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C35" s="17">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F35" s="3">
         <v>18</v>
@@ -7752,25 +7752,25 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="e">
+      <c r="A36" s="13">
         <f>A35*100/'2020 - data'!A35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B36" s="13" t="e">
+        <v>27.745664739884393</v>
+      </c>
+      <c r="B36" s="13">
         <f>B35*100/'2020 - data'!B35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C36" s="13" t="e">
+        <v>15.319148936170214</v>
+      </c>
+      <c r="C36" s="13">
         <f>C35*100/'2020 - data'!C35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="13" t="e">
+        <v>17.589576547231271</v>
+      </c>
+      <c r="D36" s="13">
         <f>D35*100/'2020 - data'!D35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="13" t="e">
+        <v>10.619469026548673</v>
+      </c>
+      <c r="E36" s="13">
         <f>E35*100/'2020 - data'!E35</f>
-        <v>#DIV/0!</v>
+        <v>10.897435897435898</v>
       </c>
       <c r="F36" s="13">
         <f>F35*100/'2020 - data'!F35</f>
@@ -7820,11 +7820,11 @@
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f>SUM(A39:L39)</f>
-        <v>5789</v>
+        <v>15936</v>
       </c>
       <c r="B38" s="15">
         <f>AVERAGEIF(A40:L40,"&gt;0")</f>
-        <v>18.928329478373776</v>
+        <v>18.903790414164767</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7840,23 +7840,23 @@
     <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>SUM(A3,A7,A11,A15,A19,A23,A27,A31,A35)</f>
-        <v>0</v>
+        <v>2390</v>
       </c>
       <c r="B39" s="3">
         <f t="shared" ref="B39:L39" si="0">SUM(B3,B7,B11,B15,B19,B23,B27,B31,B35)</f>
-        <v>0</v>
+        <v>1657</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2624</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1676</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
@@ -7888,25 +7888,25 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="e">
+      <c r="A40" s="13">
         <f>A39*100/'2020 - data'!A39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B40" s="13" t="e">
+        <v>19.156781019557549</v>
+      </c>
+      <c r="B40" s="13">
         <f>B39*100/'2020 - data'!B39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C40" s="13" t="e">
+        <v>15.666067883142668</v>
+      </c>
+      <c r="C40" s="13">
         <f>C39*100/'2020 - data'!C39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="13" t="e">
+        <v>21.52760685864304</v>
+      </c>
+      <c r="D40" s="13">
         <f>D39*100/'2020 - data'!D39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="13" t="e">
+        <v>18.262987012987011</v>
+      </c>
+      <c r="E40" s="13">
         <f>E39*100/'2020 - data'!E39</f>
-        <v>#DIV/0!</v>
+        <v>19.782813975448537</v>
       </c>
       <c r="F40" s="13">
         <f>F39*100/'2020 - data'!F39</f>
@@ -7963,8 +7963,8 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7992,15 +7992,15 @@
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SUM(A3:L3)</f>
-        <v>10944</v>
+        <v>30227</v>
       </c>
       <c r="B2" s="11">
         <f>100-'2020 - Multimedia'!B2</f>
-        <v>78.477883595006716</v>
+        <v>78.11472365562679</v>
       </c>
       <c r="C2" s="3">
         <f>TRUNC(A2/A4)</f>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -8014,19 +8014,19 @@
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>0</v>
+        <v>4319</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>3636</v>
       </c>
       <c r="C3" s="17">
-        <v>0</v>
+        <v>4317</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>3975</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>3036</v>
       </c>
       <c r="F3" s="3">
         <v>3938</v>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B4" s="7">
         <v>369</v>
@@ -8089,11 +8089,11 @@
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>SUM(A7:L7)</f>
-        <v>891</v>
+        <v>1618</v>
       </c>
       <c r="B6" s="11">
         <f>100-'2020 - Multimedia'!B6</f>
-        <v>96.141063782911928</v>
+        <v>96.238091938950447</v>
       </c>
       <c r="C6" s="3">
         <f>TRUNC(A6/A8)</f>
@@ -8111,19 +8111,19 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="F7" s="3">
         <v>369</v>
@@ -8150,7 +8150,7 @@
     <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B8" s="7">
         <v>369</v>
@@ -8187,15 +8187,15 @@
     <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>SUM(A11:L11)</f>
-        <v>3548</v>
+        <v>8861</v>
       </c>
       <c r="B10" s="11">
         <f>100-'2020 - Multimedia'!B10</f>
-        <v>76.110514062026226</v>
+        <v>79.436861384327003</v>
       </c>
       <c r="C10" s="3">
         <f>TRUNC(A10/A12)</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -8209,19 +8209,19 @@
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1436</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>727</v>
       </c>
       <c r="F11" s="3">
         <v>908</v>
@@ -8248,7 +8248,7 @@
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B12" s="7">
         <v>369</v>
@@ -8285,15 +8285,15 @@
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>SUM(A15:L15)</f>
-        <v>4476</v>
+        <v>11703</v>
       </c>
       <c r="B14" s="11">
         <f>100-'2020 - Multimedia'!B14</f>
-        <v>79.947762065358404</v>
+        <v>80.29635744392337</v>
       </c>
       <c r="C14" s="3">
         <f>TRUNC(A14/A16)</f>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -8307,19 +8307,19 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1424</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1829</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1360</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="F15" s="3">
         <v>1153</v>
@@ -8346,7 +8346,7 @@
     <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B16" s="7">
         <v>369</v>
@@ -8383,15 +8383,15 @@
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>SUM(A19:L19)</f>
-        <v>5374</v>
+        <v>18731</v>
       </c>
       <c r="B18" s="11">
         <f>100-'2020 - Multimedia'!B18</f>
-        <v>86.379717572333604</v>
+        <v>85.122493960102346</v>
       </c>
       <c r="C18" s="3">
         <f>TRUNC(A18/A20)</f>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -8405,19 +8405,19 @@
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>2818</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>1686</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>2638</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>3168</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>3047</v>
       </c>
       <c r="F19" s="3">
         <v>2585</v>
@@ -8444,7 +8444,7 @@
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B20" s="7">
         <v>369</v>
@@ -8481,15 +8481,15 @@
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>SUM(A23:L23)</f>
-        <v>4250</v>
+        <v>10253</v>
       </c>
       <c r="B22" s="11">
         <f>100-'2020 - Multimedia'!B22</f>
-        <v>84.288880860933688</v>
+        <v>84.001373694732393</v>
       </c>
       <c r="C22" s="3">
         <f>TRUNC(A22/A24)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -8503,16 +8503,16 @@
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>0</v>
+        <v>2218</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>1664</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1472</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -8542,7 +8542,7 @@
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B24" s="7">
         <v>369</v>
@@ -8579,15 +8579,15 @@
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>SUM(A27:L27)</f>
-        <v>235</v>
+        <v>622</v>
       </c>
       <c r="B26" s="11">
         <f>100-'2020 - Multimedia'!B26</f>
-        <v>83.615454166087076</v>
+        <v>78.48132587056638</v>
       </c>
       <c r="C26" s="3">
         <f>TRUNC(A26/A28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -8601,16 +8601,16 @@
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -8640,7 +8640,7 @@
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B28" s="7">
         <v>369</v>
@@ -8677,11 +8677,11 @@
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>SUM(A31:L31)</f>
-        <v>67</v>
+        <v>243</v>
       </c>
       <c r="B30" s="11">
         <f>100-'2020 - Multimedia'!B30</f>
-        <v>83.081611022787484</v>
+        <v>84.40686675980794</v>
       </c>
       <c r="C30" s="3">
         <f>TRUNC(A30/A32)</f>
@@ -8699,19 +8699,19 @@
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B31" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F31" s="3">
         <v>4</v>
@@ -8738,7 +8738,7 @@
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B32" s="7">
         <v>369</v>
@@ -8775,15 +8775,15 @@
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>SUM(A35:L35)</f>
-        <v>694</v>
+        <v>1791</v>
       </c>
       <c r="B34" s="11">
         <f>100-'2020 - Multimedia'!B34</f>
-        <v>88.752700688425847</v>
+        <v>86.159220829485875</v>
       </c>
       <c r="C34" s="3">
         <f>TRUNC(A34/A36)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -8797,19 +8797,19 @@
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="B35" s="3">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="C35" s="3">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="F35" s="3">
         <v>187</v>
@@ -8836,7 +8836,7 @@
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B36" s="7">
         <v>369</v>
@@ -8873,15 +8873,15 @@
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>SUM(A39:L39)</f>
-        <v>30479</v>
+        <v>84049</v>
       </c>
       <c r="B38" s="11">
         <f>100-'2020 - Multimedia'!B38</f>
-        <v>81.071670521626231</v>
+        <v>81.096209585835226</v>
       </c>
       <c r="C38" s="3">
         <f>TRUNC(A38/A40)</f>
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -8896,23 +8896,23 @@
     <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f>SUM(A3,A7,A11,A15,A19,A23,A27,A31,A35)</f>
-        <v>0</v>
+        <v>12476</v>
       </c>
       <c r="B39" s="3">
         <f t="shared" ref="B39:L39" si="0">SUM(B3,B7,B11,B15,B19,B23,B27,B31,B35)</f>
-        <v>0</v>
+        <v>10577</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12189</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9856</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8472</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
@@ -8946,7 +8946,7 @@
     <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <f>A4</f>
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="B40" s="7">
         <v>369</v>
